--- a/torso_Data_Variable.xlsx
+++ b/torso_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>260.3766174316406</v>
+        <v>340.2249755859375</v>
       </c>
       <c r="B2" t="n">
-        <v>263.2583312988281</v>
+        <v>345.376220703125</v>
       </c>
       <c r="C2" t="n">
-        <v>265.1302490234375</v>
+        <v>350.4284057617188</v>
       </c>
       <c r="D2" t="n">
-        <v>266.8928527832031</v>
+        <v>354.0133972167969</v>
       </c>
       <c r="E2" t="n">
-        <v>270.4610290527344</v>
+        <v>358.4219665527344</v>
       </c>
       <c r="F2" t="n">
-        <v>274.8203735351562</v>
+        <v>364.4971923828125</v>
       </c>
       <c r="G2" t="n">
-        <v>278.7519226074219</v>
+        <v>372.0984497070312</v>
       </c>
       <c r="H2" t="n">
-        <v>282.6549072265625</v>
+        <v>380.4747314453125</v>
       </c>
       <c r="I2" t="n">
-        <v>287.0614013671875</v>
+        <v>388.6264038085938</v>
       </c>
       <c r="J2" t="n">
-        <v>292.1449279785156</v>
+        <v>395.6161499023438</v>
       </c>
       <c r="K2" t="n">
-        <v>299.4712524414062</v>
+        <v>402.9498901367188</v>
       </c>
       <c r="L2" t="n">
-        <v>305.1349487304688</v>
+        <v>409.3232421875</v>
       </c>
       <c r="M2" t="n">
-        <v>308.897705078125</v>
+        <v>430.3505859375</v>
       </c>
       <c r="N2" t="n">
-        <v>311.8397521972656</v>
+        <v>431.7658081054688</v>
       </c>
       <c r="O2" t="n">
-        <v>316.5508117675781</v>
+        <v>432.3245544433594</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7083129882812</v>
+        <v>430.2893676757812</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.8158569335938</v>
+        <v>429.1904907226562</v>
       </c>
       <c r="R2" t="n">
-        <v>327.1053771972656</v>
+        <v>428.4720458984375</v>
       </c>
       <c r="S2" t="n">
-        <v>328.7340698242188</v>
+        <v>427.8558044433594</v>
       </c>
       <c r="T2" t="n">
-        <v>329.4818725585938</v>
+        <v>425.7397766113281</v>
       </c>
       <c r="U2" t="n">
-        <v>329.7063598632812</v>
+        <v>421.5070190429688</v>
       </c>
       <c r="V2" t="n">
-        <v>329.6579284667969</v>
+        <v>416.0044860839844</v>
       </c>
       <c r="W2" t="n">
-        <v>329.6475830078125</v>
+        <v>411.2417602539062</v>
       </c>
       <c r="X2" t="n">
-        <v>329.6883544921875</v>
+        <v>406.6733093261719</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.6780395507812</v>
+        <v>401.7023010253906</v>
       </c>
       <c r="Z2" t="n">
-        <v>329.6252136230469</v>
+        <v>397.768310546875</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.6705932617188</v>
+        <v>394.0665893554688</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.53271484375</v>
+        <v>391.138916015625</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.3139038085938</v>
+        <v>388.22265625</v>
       </c>
       <c r="AD2" t="n">
-        <v>329.103271484375</v>
+        <v>385.1402282714844</v>
       </c>
       <c r="AE2" t="n">
-        <v>328.9886474609375</v>
+        <v>383.35009765625</v>
       </c>
       <c r="AF2" t="n">
-        <v>329.0157470703125</v>
+        <v>381.6106567382812</v>
       </c>
       <c r="AG2" t="n">
-        <v>328.9789428710938</v>
+        <v>380.6523132324219</v>
       </c>
       <c r="AH2" t="n">
-        <v>328.98828125</v>
+        <v>380.0888366699219</v>
       </c>
       <c r="AI2" t="n">
-        <v>329.1152954101562</v>
+        <v>379.3938903808594</v>
       </c>
       <c r="AJ2" t="n">
-        <v>329.2465515136719</v>
+        <v>378.9931945800781</v>
       </c>
       <c r="AK2" t="n">
-        <v>329.4314270019531</v>
+        <v>378.1460571289062</v>
       </c>
       <c r="AL2" t="n">
-        <v>329.8540954589844</v>
+        <v>376.67138671875</v>
       </c>
       <c r="AM2" t="n">
-        <v>330.2820434570312</v>
+        <v>374.8251342773438</v>
       </c>
       <c r="AN2" t="n">
-        <v>331.074462890625</v>
+        <v>373.483642578125</v>
       </c>
       <c r="AO2" t="n">
-        <v>334.2058715820312</v>
+        <v>372.3828735351562</v>
       </c>
       <c r="AP2" t="n">
-        <v>335.3792724609375</v>
+        <v>371.1488342285156</v>
       </c>
       <c r="AQ2" t="n">
-        <v>335.9272766113281</v>
+        <v>370.63818359375</v>
       </c>
       <c r="AR2" t="n">
-        <v>336.0446166992188</v>
+        <v>370.382568359375</v>
       </c>
       <c r="AS2" t="n">
-        <v>336.191650390625</v>
+        <v>370.4383544921875</v>
       </c>
       <c r="AT2" t="n">
-        <v>336.7040405273438</v>
+        <v>370.55126953125</v>
       </c>
       <c r="AU2" t="n">
-        <v>337.1772766113281</v>
+        <v>370.730224609375</v>
       </c>
       <c r="AV2" t="n">
-        <v>337.6278076171875</v>
+        <v>370.9372253417969</v>
       </c>
       <c r="AW2" t="n">
-        <v>338.1004028320312</v>
+        <v>370.9434814453125</v>
       </c>
       <c r="AX2" t="n">
-        <v>337.8345336914062</v>
+        <v>370.4983825683594</v>
       </c>
       <c r="AY2" t="n">
-        <v>337.2943420410156</v>
+        <v>369.4515686035156</v>
       </c>
       <c r="AZ2" t="n">
-        <v>336.9048461914062</v>
+        <v>368.256591796875</v>
       </c>
       <c r="BA2" t="n">
-        <v>336.6629333496094</v>
+        <v>367.4500732421875</v>
       </c>
       <c r="BB2" t="n">
-        <v>336.4261474609375</v>
+        <v>366.54345703125</v>
       </c>
       <c r="BC2" t="n">
-        <v>336.0679321289062</v>
+        <v>365.3872680664062</v>
       </c>
       <c r="BD2" t="n">
-        <v>335.2434997558594</v>
+        <v>364.4216613769531</v>
       </c>
       <c r="BE2" t="n">
-        <v>334.45947265625</v>
+        <v>363.4559631347656</v>
       </c>
       <c r="BF2" t="n">
-        <v>333.5332641601562</v>
+        <v>362.2205200195312</v>
       </c>
       <c r="BG2" t="n">
-        <v>332.2745971679688</v>
+        <v>361.0719604492188</v>
       </c>
       <c r="BH2" t="n">
-        <v>331.0387573242188</v>
+        <v>359.4451904296875</v>
       </c>
       <c r="BI2" t="n">
-        <v>329.3768005371094</v>
+        <v>357.0586547851562</v>
       </c>
       <c r="BJ2" t="n">
-        <v>327.84326171875</v>
+        <v>354.7421875</v>
       </c>
       <c r="BK2" t="n">
-        <v>326.7871398925781</v>
+        <v>351.6570434570312</v>
       </c>
       <c r="BL2" t="n">
-        <v>325.2901611328125</v>
+        <v>346.7643432617188</v>
       </c>
       <c r="BM2" t="n">
-        <v>323.9843444824219</v>
+        <v>342.2689208984375</v>
       </c>
       <c r="BN2" t="n">
-        <v>322.7277221679688</v>
+        <v>337.6779479980469</v>
       </c>
       <c r="BO2" t="n">
-        <v>321.9105224609375</v>
+        <v>330.9302368164062</v>
       </c>
       <c r="BP2" t="n">
-        <v>321.2668151855469</v>
+        <v>327.8328857421875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>320.9708251953125</v>
+        <v>325.3466796875</v>
       </c>
       <c r="BR2" t="n">
-        <v>320.5700073242188</v>
+        <v>323.0027465820312</v>
       </c>
       <c r="BS2" t="n">
-        <v>320.101806640625</v>
+        <v>320.5607604980469</v>
       </c>
       <c r="BT2" t="n">
-        <v>319.8048400878906</v>
+        <v>318.5112915039062</v>
       </c>
       <c r="BU2" t="n">
-        <v>319.5039672851562</v>
+        <v>317.2090148925781</v>
       </c>
       <c r="BV2" t="n">
-        <v>318.9226684570312</v>
+        <v>316.4062194824219</v>
       </c>
       <c r="BW2" t="n">
-        <v>318.636474609375</v>
+        <v>315.9823303222656</v>
       </c>
       <c r="BX2" t="n">
-        <v>318.9542236328125</v>
+        <v>315.9007873535156</v>
       </c>
       <c r="BY2" t="n">
-        <v>318.8325805664062</v>
+        <v>316.7997131347656</v>
       </c>
       <c r="BZ2" t="n">
-        <v>318.9104309082031</v>
+        <v>318.1920166015625</v>
       </c>
       <c r="CA2" t="n">
-        <v>318.9175720214844</v>
+        <v>320.82666015625</v>
       </c>
       <c r="CB2" t="n">
-        <v>319.0813903808594</v>
+        <v>323.6826171875</v>
       </c>
       <c r="CC2" t="n">
-        <v>319.2778930664062</v>
+        <v>327.1139526367188</v>
       </c>
       <c r="CD2" t="n">
-        <v>319.7305908203125</v>
+        <v>330.3793640136719</v>
       </c>
       <c r="CE2" t="n">
-        <v>320.2341003417969</v>
+        <v>336.1616516113281</v>
       </c>
       <c r="CF2" t="n">
-        <v>320.9058227539062</v>
+        <v>339.9368591308594</v>
       </c>
       <c r="CG2" t="n">
-        <v>321.173583984375</v>
+        <v>343.507080078125</v>
       </c>
       <c r="CH2" t="n">
-        <v>321.1617736816406</v>
+        <v>347.8253784179688</v>
       </c>
       <c r="CI2" t="n">
-        <v>321.1929931640625</v>
+        <v>352.6403198242188</v>
       </c>
       <c r="CJ2" t="n">
-        <v>321.0144348144531</v>
+        <v>356.2722473144531</v>
       </c>
       <c r="CK2" t="n">
-        <v>320.6478576660156</v>
+        <v>359.6595458984375</v>
       </c>
       <c r="CL2" t="n">
-        <v>320.4675903320312</v>
+        <v>362.6632080078125</v>
       </c>
       <c r="CM2" t="n">
-        <v>320.3150024414062</v>
+        <v>365.6362609863281</v>
       </c>
       <c r="CN2" t="n">
-        <v>320.023681640625</v>
+        <v>369.5657348632812</v>
       </c>
       <c r="CO2" t="n">
-        <v>319.2747802734375</v>
+        <v>371.0368347167969</v>
       </c>
       <c r="CP2" t="n">
-        <v>318.2561340332031</v>
+        <v>372.5985107421875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>317.2406616210938</v>
+        <v>373.8905029296875</v>
       </c>
       <c r="CR2" t="n">
-        <v>316.411376953125</v>
+        <v>374.7281494140625</v>
       </c>
       <c r="CS2" t="n">
-        <v>315.7938232421875</v>
+        <v>375.230224609375</v>
       </c>
       <c r="CT2" t="n">
-        <v>314.3475341796875</v>
+        <v>375.3055419921875</v>
       </c>
       <c r="CU2" t="n">
-        <v>313.2102355957031</v>
+        <v>375.3211059570312</v>
       </c>
       <c r="CV2" t="n">
-        <v>312.5295715332031</v>
+        <v>374.4641723632812</v>
       </c>
       <c r="CW2" t="n">
-        <v>311.4844360351562</v>
+        <v>373.0532836914062</v>
       </c>
       <c r="CX2" t="n">
-        <v>309.6705627441406</v>
+        <v>368.659912109375</v>
       </c>
       <c r="CY2" t="n">
-        <v>306.1005249023438</v>
+        <v>365.1482543945312</v>
       </c>
       <c r="CZ2" t="n">
-        <v>303.0783386230469</v>
+        <v>358.1946105957031</v>
       </c>
       <c r="DA2" t="n">
-        <v>301.6213989257812</v>
+        <v>356.0167236328125</v>
       </c>
       <c r="DB2" t="n">
-        <v>300.6890258789062</v>
+        <v>354.018798828125</v>
       </c>
       <c r="DC2" t="n">
-        <v>300.9764404296875</v>
+        <v>350.8216552734375</v>
       </c>
       <c r="DD2" t="n">
-        <v>301.4898071289062</v>
+        <v>346.5582275390625</v>
       </c>
       <c r="DE2" t="n">
-        <v>301.9981079101562</v>
+        <v>339.7469482421875</v>
       </c>
       <c r="DF2" t="n">
-        <v>301.7632141113281</v>
+        <v>334.8135681152344</v>
       </c>
       <c r="DG2" t="n">
-        <v>301.6422729492188</v>
+        <v>333.3002319335938</v>
       </c>
       <c r="DH2" t="n">
-        <v>301.6347045898438</v>
+        <v>329.8372192382812</v>
       </c>
       <c r="DI2" t="n">
-        <v>301.6386413574219</v>
+        <v>328.2300109863281</v>
       </c>
       <c r="DJ2" t="n">
-        <v>301.8368225097656</v>
+        <v>326.3983459472656</v>
       </c>
       <c r="DK2" t="n">
-        <v>302.6841125488281</v>
+        <v>325.3380737304688</v>
       </c>
       <c r="DL2" t="n">
-        <v>304.2925109863281</v>
+        <v>324.7672119140625</v>
       </c>
       <c r="DM2" t="n">
-        <v>306.8383178710938</v>
+        <v>324.1541137695312</v>
       </c>
       <c r="DN2" t="n">
-        <v>309.3193359375</v>
+        <v>323.3080749511719</v>
       </c>
       <c r="DO2" t="n">
-        <v>313.0712280273438</v>
+        <v>321.6913146972656</v>
       </c>
       <c r="DP2" t="n">
-        <v>315.4928283691406</v>
+        <v>319.635986328125</v>
       </c>
       <c r="DQ2" t="n">
-        <v>317.5801391601562</v>
+        <v>315.8998718261719</v>
       </c>
       <c r="DR2" t="n">
-        <v>319.9133605957031</v>
+        <v>314.97119140625</v>
       </c>
       <c r="DS2" t="n">
-        <v>323.012451171875</v>
+        <v>314.9154052734375</v>
       </c>
       <c r="DT2" t="n">
-        <v>325.2807922363281</v>
+        <v>314.8469848632812</v>
       </c>
       <c r="DU2" t="n">
-        <v>329.925048828125</v>
+        <v>314.7277526855469</v>
       </c>
       <c r="DV2" t="n">
-        <v>332.3551635742188</v>
+        <v>314.9372253417969</v>
       </c>
       <c r="DW2" t="n">
-        <v>335.297119140625</v>
+        <v>319.3519897460938</v>
       </c>
       <c r="DX2" t="n">
-        <v>338.1979064941406</v>
+        <v>323.2670593261719</v>
       </c>
       <c r="DY2" t="n">
-        <v>339.4613647460938</v>
+        <v>326.9898681640625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>340.8316345214844</v>
+        <v>333.3548278808594</v>
       </c>
       <c r="EA2" t="n">
-        <v>341.4103393554688</v>
+        <v>337.766357421875</v>
       </c>
       <c r="EB2" t="n">
-        <v>342.0368041992188</v>
+        <v>349.21728515625</v>
       </c>
       <c r="EC2" t="n">
-        <v>342.1763610839844</v>
+        <v>355.9920654296875</v>
       </c>
       <c r="ED2" t="n">
-        <v>342.2544555664062</v>
+        <v>361.493408203125</v>
       </c>
       <c r="EE2" t="n">
-        <v>341.1405639648438</v>
+        <v>374.1739501953125</v>
       </c>
       <c r="EF2" t="n">
-        <v>338.2892456054688</v>
+        <v>390.3881530761719</v>
       </c>
       <c r="EG2" t="n">
-        <v>335.004638671875</v>
+        <v>405.2559814453125</v>
       </c>
       <c r="EH2" t="n">
-        <v>333.0969543457031</v>
+        <v>411.0001220703125</v>
       </c>
       <c r="EI2" t="n">
-        <v>332.3148803710938</v>
+        <v>421.5545349121094</v>
       </c>
       <c r="EJ2" t="n">
-        <v>331.6763610839844</v>
+        <v>425.5436401367188</v>
       </c>
       <c r="EK2" t="n">
-        <v>330.4182739257812</v>
+        <v>431.3932495117188</v>
       </c>
       <c r="EL2" t="n">
-        <v>326.6502075195312</v>
+        <v>433.7256469726562</v>
       </c>
       <c r="EM2" t="n">
-        <v>322.793701171875</v>
+        <v>439.5800170898438</v>
       </c>
       <c r="EN2" t="n">
-        <v>320.984130859375</v>
+        <v>443.5938720703125</v>
       </c>
       <c r="EO2" t="n">
-        <v>318.6869506835938</v>
+        <v>447.9595336914062</v>
       </c>
       <c r="EP2" t="n">
-        <v>317.7329711914062</v>
+        <v>448.8499145507812</v>
       </c>
       <c r="EQ2" t="n">
-        <v>315.3593139648438</v>
+        <v>451.9237060546875</v>
       </c>
       <c r="ER2" t="n">
-        <v>314.2611999511719</v>
+        <v>452.7821350097656</v>
       </c>
       <c r="ES2" t="n">
-        <v>313.4380187988281</v>
+        <v>452.7340393066406</v>
       </c>
       <c r="ET2" t="n">
-        <v>313.3442077636719</v>
+        <v>453.6964416503906</v>
       </c>
       <c r="EU2" t="n">
-        <v>313.2844543457031</v>
+        <v>454.7930297851562</v>
       </c>
       <c r="EV2" t="n">
-        <v>313.3419799804688</v>
+        <v>454.7956848144531</v>
       </c>
       <c r="EW2" t="n">
-        <v>314.8729858398438</v>
+        <v>453.4945068359375</v>
       </c>
       <c r="EX2" t="n">
-        <v>315.8434448242188</v>
+        <v>453.2754516601562</v>
       </c>
       <c r="EY2" t="n">
-        <v>316.0420532226562</v>
+        <v>452.2534484863281</v>
       </c>
       <c r="EZ2" t="n">
-        <v>316.2387084960938</v>
+        <v>451.0742492675781</v>
       </c>
       <c r="FA2" t="n">
-        <v>316.4334106445312</v>
+        <v>449.5789184570312</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.9554443359375</v>
+        <v>450.3788757324219</v>
       </c>
       <c r="FC2" t="n">
-        <v>317.518798828125</v>
+        <v>451.2252807617188</v>
       </c>
       <c r="FD2" t="n">
-        <v>318.3809204101562</v>
+        <v>448.9349365234375</v>
       </c>
       <c r="FE2" t="n">
-        <v>319.0159301757812</v>
+        <v>447.7345581054688</v>
       </c>
       <c r="FF2" t="n">
-        <v>319.1690673828125</v>
+        <v>446.4531860351562</v>
       </c>
       <c r="FG2" t="n">
-        <v>319.233642578125</v>
+        <v>443.867919921875</v>
       </c>
       <c r="FH2" t="n">
-        <v>319.2037963867188</v>
+        <v>443.3672485351562</v>
       </c>
       <c r="FI2" t="n">
-        <v>319.1874084472656</v>
+        <v>442.6709289550781</v>
       </c>
       <c r="FJ2" t="n">
-        <v>319.0919189453125</v>
+        <v>441.9556884765625</v>
       </c>
       <c r="FK2" t="n">
-        <v>318.5509033203125</v>
+        <v>440.6133728027344</v>
       </c>
       <c r="FL2" t="n">
-        <v>316.5830383300781</v>
+        <v>439.5717163085938</v>
       </c>
       <c r="FM2" t="n">
-        <v>315.3403930664062</v>
+        <v>436.8970336914062</v>
       </c>
       <c r="FN2" t="n">
-        <v>314.4360961914062</v>
+        <v>435.9722290039062</v>
       </c>
       <c r="FO2" t="n">
-        <v>313.3627319335938</v>
+        <v>435.1131591796875</v>
       </c>
       <c r="FP2" t="n">
-        <v>310.4496765136719</v>
+        <v>432.6498107910156</v>
       </c>
       <c r="FQ2" t="n">
-        <v>308.8337707519531</v>
+        <v>430.7544555664062</v>
       </c>
       <c r="FR2" t="n">
-        <v>307.1138610839844</v>
+        <v>429.1585998535156</v>
       </c>
       <c r="FS2" t="n">
-        <v>307.4030151367188</v>
+        <v>427.0882568359375</v>
       </c>
       <c r="FT2" t="n">
-        <v>306.8515014648438</v>
+        <v>421.975341796875</v>
       </c>
       <c r="FU2" t="n">
-        <v>305.6000366210938</v>
+        <v>419.534912109375</v>
       </c>
       <c r="FV2" t="n">
-        <v>304.1336669921875</v>
+        <v>413.146728515625</v>
       </c>
       <c r="FW2" t="n">
-        <v>303.5652465820312</v>
+        <v>409.3097534179688</v>
       </c>
       <c r="FX2" t="n">
-        <v>303.41064453125</v>
+        <v>408.3067016601562</v>
       </c>
       <c r="FY2" t="n">
-        <v>303.2639465332031</v>
+        <v>407.3254089355469</v>
       </c>
       <c r="FZ2" t="n">
-        <v>302.7476806640625</v>
+        <v>403.4335021972656</v>
       </c>
       <c r="GA2" t="n">
-        <v>302.2662963867188</v>
+        <v>401.5291748046875</v>
       </c>
       <c r="GB2" t="n">
-        <v>302.0535888671875</v>
+        <v>397.304931640625</v>
       </c>
       <c r="GC2" t="n">
-        <v>301.8775024414062</v>
+        <v>396.1982421875</v>
       </c>
       <c r="GD2" t="n">
-        <v>301.7941284179688</v>
+        <v>395.2197875976562</v>
       </c>
       <c r="GE2" t="n">
-        <v>302.5949401855469</v>
+        <v>395.0045471191406</v>
       </c>
       <c r="GF2" t="n">
-        <v>303.3014221191406</v>
+        <v>394.2274169921875</v>
       </c>
       <c r="GG2" t="n">
-        <v>304.1700744628906</v>
+        <v>393.8868713378906</v>
       </c>
       <c r="GH2" t="n">
-        <v>304.2991333007812</v>
+        <v>392.1389770507812</v>
       </c>
       <c r="GI2" t="n">
-        <v>304.097900390625</v>
+        <v>388.3602294921875</v>
       </c>
       <c r="GJ2" t="n">
-        <v>304.8643798828125</v>
+        <v>385.136474609375</v>
       </c>
       <c r="GK2" t="n">
-        <v>306.7240600585938</v>
+        <v>383.33056640625</v>
       </c>
       <c r="GL2" t="n">
-        <v>307.7967529296875</v>
+        <v>379.428466796875</v>
       </c>
       <c r="GM2" t="n">
-        <v>308.1907043457031</v>
+        <v>375.3882446289062</v>
       </c>
       <c r="GN2" t="n">
-        <v>308.2973937988281</v>
+        <v>372.878173828125</v>
       </c>
       <c r="GO2" t="n">
-        <v>307.4651794433594</v>
+        <v>368.6989135742188</v>
       </c>
       <c r="GP2" t="n">
-        <v>306.8408203125</v>
+        <v>362.685302734375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>306.5162048339844</v>
+        <v>355.3531494140625</v>
       </c>
       <c r="GR2" t="n">
-        <v>306.0943908691406</v>
+        <v>350.9968566894531</v>
       </c>
       <c r="GS2" t="n">
-        <v>305.0767517089844</v>
+        <v>347.5071411132812</v>
       </c>
       <c r="GT2" t="n">
-        <v>304.4254150390625</v>
+        <v>344.9835510253906</v>
       </c>
       <c r="GU2" t="n">
-        <v>301.4678955078125</v>
+        <v>339.0082397460938</v>
       </c>
       <c r="GV2" t="n">
-        <v>298.6539001464844</v>
+        <v>336.7744750976562</v>
       </c>
       <c r="GW2" t="n">
-        <v>296.8466491699219</v>
+        <v>335.8533325195312</v>
       </c>
       <c r="GX2" t="n">
-        <v>295.7095947265625</v>
+        <v>335.3402099609375</v>
       </c>
       <c r="GY2" t="n">
-        <v>294.8040161132812</v>
+        <v>334.3587646484375</v>
       </c>
       <c r="GZ2" t="n">
-        <v>293.850341796875</v>
+        <v>332.964599609375</v>
       </c>
       <c r="HA2" t="n">
-        <v>293.0141906738281</v>
+        <v>331.9556884765625</v>
       </c>
       <c r="HB2" t="n">
-        <v>292.3703308105469</v>
+        <v>331.7670288085938</v>
       </c>
       <c r="HC2" t="n">
-        <v>291.4778747558594</v>
+        <v>331.6565551757812</v>
       </c>
       <c r="HD2" t="n">
-        <v>291.3431396484375</v>
+        <v>331.6539001464844</v>
       </c>
       <c r="HE2" t="n">
-        <v>291.4820556640625</v>
+        <v>331.0425415039062</v>
       </c>
       <c r="HF2" t="n">
-        <v>291.4472351074219</v>
+        <v>329.8036193847656</v>
       </c>
       <c r="HG2" t="n">
-        <v>290.9588928222656</v>
+        <v>329.9158935546875</v>
       </c>
       <c r="HH2" t="n">
-        <v>290.0203247070312</v>
+        <v>331.6739501953125</v>
       </c>
       <c r="HI2" t="n">
-        <v>288.9105834960938</v>
+        <v>334.5989379882812</v>
       </c>
       <c r="HJ2" t="n">
-        <v>287.4165649414062</v>
+        <v>341.3265991210938</v>
       </c>
       <c r="HK2" t="n">
-        <v>283.7463684082031</v>
+        <v>345.3338928222656</v>
       </c>
       <c r="HL2" t="n">
-        <v>277.7420654296875</v>
+        <v>353.0151062011719</v>
       </c>
       <c r="HM2" t="n">
-        <v>271.2837219238281</v>
+        <v>361.1864013671875</v>
       </c>
       <c r="HN2" t="n">
-        <v>259.613525390625</v>
+        <v>371.25634765625</v>
       </c>
       <c r="HO2" t="n">
-        <v>253.4539031982422</v>
+        <v>385.5853271484375</v>
       </c>
       <c r="HP2" t="n">
-        <v>251.0889282226562</v>
+        <v>395.5272827148438</v>
       </c>
       <c r="HQ2" t="n">
-        <v>252.4896850585938</v>
+        <v>398.8703002929688</v>
       </c>
       <c r="HR2" t="n">
-        <v>254.378173828125</v>
+        <v>408.0339965820312</v>
       </c>
       <c r="HS2" t="n">
-        <v>252.1923217773438</v>
+        <v>413.59423828125</v>
       </c>
       <c r="HT2" t="n">
-        <v>248.7360382080078</v>
+        <v>418.6774291992188</v>
       </c>
       <c r="HU2" t="n">
-        <v>243.2702331542969</v>
+        <v>421.8999938964844</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>423.5009460449219</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>424.5697631835938</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>425.7735595703125</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>426.1310424804688</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>426.6845092773438</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>426.5325927734375</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>426.4352416992188</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>426.1848449707031</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>424.3018798828125</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>421.2741088867188</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>419.1015319824219</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>415.624267578125</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>408.214599609375</v>
+      </c>
+      <c r="II2" t="n">
+        <v>404.279296875</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>398.00439453125</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>386.2351684570312</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>382.2282409667969</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>373.0805969238281</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>362.7890014648438</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>355.1194458007812</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>352.13134765625</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>347.5452880859375</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>344.7208251953125</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>343.752197265625</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>340.9994812011719</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>339.6235961914062</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>338.8721313476562</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>338.5523071289062</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>337.5591430664062</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>337.5603637695312</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>337.9031066894531</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>340.5033874511719</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>344.00732421875</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>346.1717224121094</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>349.2490234375</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>354.8200073242188</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>360.0823669433594</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>367.7899780273438</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>373.1994323730469</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>378.4949951171875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>383.1308288574219</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>387.1674194335938</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>393.7435607910156</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>396.02685546875</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>398.5059814453125</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>401.4549255371094</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>403.9840698242188</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>406.2383422851562</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>407.55224609375</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>409.3931884765625</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>411.3610229492188</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>412.5540771484375</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>413.0614929199219</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>413.50048828125</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>413.6079406738281</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>413.6302185058594</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>413.6369018554688</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>413.638671875</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>413.5284423828125</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>413.2510681152344</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>410.384765625</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>409.126708984375</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>409.0417785644531</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>408.7627563476562</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>408.7335510253906</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>408.6972351074219</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>408.6096801757812</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>408.5595397949219</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>408.5261535644531</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>408.5065002441406</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>408.432373046875</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>408.7091369628906</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>409.4722900390625</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>409.9569396972656</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>410.0365600585938</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>410.1298828125</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>410.9146728515625</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>412.08203125</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>412.6734008789062</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>412.8591613769531</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>413.0674743652344</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>413.6986694335938</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>414.6283264160156</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>416.3685607910156</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>417.4478759765625</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>418.1370849609375</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>418.6759033203125</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>420.0138549804688</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>423.6244201660156</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>425.9347229003906</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>428.6578369140625</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>433.3226318359375</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>438.1322631835938</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>442.5972290039062</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>444.6158142089844</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>446.7415771484375</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>448.5604248046875</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>450.0843505859375</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>456.2255249023438</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>467.4990844726562</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>475.3057861328125</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>481.0648193359375</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>490.9318542480469</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>494.9298095703125</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>494.3232727050781</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>485.6796875</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>480.9472351074219</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>472.8447265625</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>455.9353332519531</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>434.3389587402344</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>412.0460510253906</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>390.2977294921875</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>365.4648132324219</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>353.0294799804688</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>348.50048828125</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>345.4483337402344</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>347.306884765625</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>353.1941528320312</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>362.9006958007812</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>373.59423828125</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>379.5287475585938</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>391.2599182128906</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>396.2568969726562</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>403.2959289550781</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>407.5105285644531</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>407.4701232910156</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>390.8378295898438</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>390.4867553710938</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>399.511962890625</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>399.3992919921875</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>375.0109252929688</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>352.0750122070312</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>353.6669311523438</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>355.6080322265625</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>356.2293701171875</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>356.7340698242188</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>354.3566284179688</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>348.7408752441406</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>347.4713439941406</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>348.69091796875</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>351.4656982421875</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>356.4740600585938</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>357.5560302734375</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>356.5637817382812</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>355.2233276367188</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>355.117431640625</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>355.2530517578125</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>356.5209350585938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>290.7158813476562</v>
+        <v>279.1877746582031</v>
       </c>
       <c r="B3" t="n">
-        <v>287.9597778320312</v>
+        <v>277.0359191894531</v>
       </c>
       <c r="C3" t="n">
-        <v>285.875</v>
+        <v>275.9937438964844</v>
       </c>
       <c r="D3" t="n">
-        <v>284.6277465820312</v>
+        <v>275.6227111816406</v>
       </c>
       <c r="E3" t="n">
-        <v>283.9173583984375</v>
+        <v>277.2161254882812</v>
       </c>
       <c r="F3" t="n">
-        <v>283.4691772460938</v>
+        <v>278.9152221679688</v>
       </c>
       <c r="G3" t="n">
-        <v>282.6291809082031</v>
+        <v>280.3736572265625</v>
       </c>
       <c r="H3" t="n">
-        <v>284.7877197265625</v>
+        <v>281.478515625</v>
       </c>
       <c r="I3" t="n">
-        <v>286.4166870117188</v>
+        <v>282.122802734375</v>
       </c>
       <c r="J3" t="n">
-        <v>288.6756286621094</v>
+        <v>282.1039123535156</v>
       </c>
       <c r="K3" t="n">
-        <v>293.1217956542969</v>
+        <v>280.4451599121094</v>
       </c>
       <c r="L3" t="n">
-        <v>295.88134765625</v>
+        <v>278.6257019042969</v>
       </c>
       <c r="M3" t="n">
-        <v>297.0907897949219</v>
+        <v>277.3680419921875</v>
       </c>
       <c r="N3" t="n">
-        <v>297.2785339355469</v>
+        <v>272.8495788574219</v>
       </c>
       <c r="O3" t="n">
-        <v>288.3297729492188</v>
+        <v>275.5887145996094</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0355529785156</v>
+        <v>273.5440673828125</v>
       </c>
       <c r="Q3" t="n">
-        <v>261.5860900878906</v>
+        <v>272.4756469726562</v>
       </c>
       <c r="R3" t="n">
-        <v>253.6487121582031</v>
+        <v>271.9809875488281</v>
       </c>
       <c r="S3" t="n">
-        <v>248.9701080322266</v>
+        <v>271.942138671875</v>
       </c>
       <c r="T3" t="n">
-        <v>248.0684814453125</v>
+        <v>272.0564575195312</v>
       </c>
       <c r="U3" t="n">
-        <v>249.1707000732422</v>
+        <v>272.4913635253906</v>
       </c>
       <c r="V3" t="n">
-        <v>251.8931274414062</v>
+        <v>275.5257568359375</v>
       </c>
       <c r="W3" t="n">
-        <v>254.5756225585938</v>
+        <v>277.4129638671875</v>
       </c>
       <c r="X3" t="n">
-        <v>256.1997985839844</v>
+        <v>278.7182922363281</v>
       </c>
       <c r="Y3" t="n">
-        <v>257.4336547851562</v>
+        <v>280.8492736816406</v>
       </c>
       <c r="Z3" t="n">
-        <v>258.1080627441406</v>
+        <v>283.2646789550781</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.716796875</v>
+        <v>285.240966796875</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.8945617675781</v>
+        <v>286.858642578125</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.3510437011719</v>
+        <v>288.1570129394531</v>
       </c>
       <c r="AD3" t="n">
-        <v>257.4033508300781</v>
+        <v>288.9558410644531</v>
       </c>
       <c r="AE3" t="n">
-        <v>256.0199279785156</v>
+        <v>289.0802001953125</v>
       </c>
       <c r="AF3" t="n">
-        <v>253.1155090332031</v>
+        <v>288.7809753417969</v>
       </c>
       <c r="AG3" t="n">
-        <v>249.6615600585938</v>
+        <v>288.5111999511719</v>
       </c>
       <c r="AH3" t="n">
-        <v>246.9522552490234</v>
+        <v>286.9201965332031</v>
       </c>
       <c r="AI3" t="n">
-        <v>245.2282104492188</v>
+        <v>285.1058654785156</v>
       </c>
       <c r="AJ3" t="n">
-        <v>244.6581726074219</v>
+        <v>283.1287841796875</v>
       </c>
       <c r="AK3" t="n">
-        <v>245.4331359863281</v>
+        <v>282.3693542480469</v>
       </c>
       <c r="AL3" t="n">
-        <v>247.3167266845703</v>
+        <v>282.5197143554688</v>
       </c>
       <c r="AM3" t="n">
-        <v>248.8646240234375</v>
+        <v>283.1946105957031</v>
       </c>
       <c r="AN3" t="n">
-        <v>249.6637573242188</v>
+        <v>283.8357849121094</v>
       </c>
       <c r="AO3" t="n">
-        <v>250.747802734375</v>
+        <v>284.3040466308594</v>
       </c>
       <c r="AP3" t="n">
-        <v>252.1805419921875</v>
+        <v>284.6998291015625</v>
       </c>
       <c r="AQ3" t="n">
-        <v>253.079345703125</v>
+        <v>284.94970703125</v>
       </c>
       <c r="AR3" t="n">
-        <v>253.27880859375</v>
+        <v>285.0617065429688</v>
       </c>
       <c r="AS3" t="n">
-        <v>253.2034149169922</v>
+        <v>285.1290588378906</v>
       </c>
       <c r="AT3" t="n">
-        <v>253.1860046386719</v>
+        <v>285.2057800292969</v>
       </c>
       <c r="AU3" t="n">
-        <v>253.4605102539062</v>
+        <v>285.3439636230469</v>
       </c>
       <c r="AV3" t="n">
-        <v>253.4489593505859</v>
+        <v>285.2877197265625</v>
       </c>
       <c r="AW3" t="n">
-        <v>252.6487274169922</v>
+        <v>285.3116455078125</v>
       </c>
       <c r="AX3" t="n">
-        <v>250.2544555664062</v>
+        <v>285.3600769042969</v>
       </c>
       <c r="AY3" t="n">
-        <v>247.3844757080078</v>
+        <v>285.4866638183594</v>
       </c>
       <c r="AZ3" t="n">
-        <v>245.0550537109375</v>
+        <v>285.6021728515625</v>
       </c>
       <c r="BA3" t="n">
-        <v>244.1176452636719</v>
+        <v>285.8287353515625</v>
       </c>
       <c r="BB3" t="n">
-        <v>244.2556610107422</v>
+        <v>286.160400390625</v>
       </c>
       <c r="BC3" t="n">
-        <v>244.7815093994141</v>
+        <v>286.4825744628906</v>
       </c>
       <c r="BD3" t="n">
-        <v>247.0814361572266</v>
+        <v>286.3531494140625</v>
       </c>
       <c r="BE3" t="n">
-        <v>248.3759002685547</v>
+        <v>286.1107788085938</v>
       </c>
       <c r="BF3" t="n">
-        <v>248.8224182128906</v>
+        <v>285.8376770019531</v>
       </c>
       <c r="BG3" t="n">
-        <v>249.6661071777344</v>
+        <v>285.0193786621094</v>
       </c>
       <c r="BH3" t="n">
-        <v>250.153076171875</v>
+        <v>283.6919860839844</v>
       </c>
       <c r="BI3" t="n">
-        <v>250.1917419433594</v>
+        <v>282.1880493164062</v>
       </c>
       <c r="BJ3" t="n">
-        <v>250.1407470703125</v>
+        <v>280.7805786132812</v>
       </c>
       <c r="BK3" t="n">
-        <v>250.0771789550781</v>
+        <v>280.01708984375</v>
       </c>
       <c r="BL3" t="n">
-        <v>249.8263854980469</v>
+        <v>279.7119140625</v>
       </c>
       <c r="BM3" t="n">
-        <v>249.6499176025391</v>
+        <v>279.6828308105469</v>
       </c>
       <c r="BN3" t="n">
-        <v>249.5692596435547</v>
+        <v>279.7548828125</v>
       </c>
       <c r="BO3" t="n">
-        <v>249.1940460205078</v>
+        <v>279.4751281738281</v>
       </c>
       <c r="BP3" t="n">
-        <v>248.1675872802734</v>
+        <v>279.130615234375</v>
       </c>
       <c r="BQ3" t="n">
-        <v>246.4095153808594</v>
+        <v>278.9407348632812</v>
       </c>
       <c r="BR3" t="n">
-        <v>244.733642578125</v>
+        <v>278.6944580078125</v>
       </c>
       <c r="BS3" t="n">
-        <v>243.9557342529297</v>
+        <v>278.3019409179688</v>
       </c>
       <c r="BT3" t="n">
-        <v>243.9956817626953</v>
+        <v>278.0476379394531</v>
       </c>
       <c r="BU3" t="n">
-        <v>245.2512969970703</v>
+        <v>277.8983764648438</v>
       </c>
       <c r="BV3" t="n">
-        <v>246.4106903076172</v>
+        <v>277.6699829101562</v>
       </c>
       <c r="BW3" t="n">
-        <v>246.7929534912109</v>
+        <v>277.3866271972656</v>
       </c>
       <c r="BX3" t="n">
-        <v>247.0560607910156</v>
+        <v>277.0662841796875</v>
       </c>
       <c r="BY3" t="n">
-        <v>247.0806579589844</v>
+        <v>275.8065795898438</v>
       </c>
       <c r="BZ3" t="n">
-        <v>247.9068145751953</v>
+        <v>275.3253479003906</v>
       </c>
       <c r="CA3" t="n">
-        <v>249.4865264892578</v>
+        <v>275.1709594726562</v>
       </c>
       <c r="CB3" t="n">
-        <v>250.5342559814453</v>
+        <v>275.2107238769531</v>
       </c>
       <c r="CC3" t="n">
-        <v>250.8907165527344</v>
+        <v>275.3779602050781</v>
       </c>
       <c r="CD3" t="n">
-        <v>250.441162109375</v>
+        <v>275.5361938476562</v>
       </c>
       <c r="CE3" t="n">
-        <v>249.5298919677734</v>
+        <v>275.69921875</v>
       </c>
       <c r="CF3" t="n">
-        <v>248.6454620361328</v>
+        <v>275.6412048339844</v>
       </c>
       <c r="CG3" t="n">
-        <v>248.2343139648438</v>
+        <v>275.7606201171875</v>
       </c>
       <c r="CH3" t="n">
-        <v>247.9868927001953</v>
+        <v>275.9004821777344</v>
       </c>
       <c r="CI3" t="n">
-        <v>247.9224853515625</v>
+        <v>275.95751953125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>247.6009674072266</v>
+        <v>276.069091796875</v>
       </c>
       <c r="CK3" t="n">
-        <v>247.1466369628906</v>
+        <v>276.12060546875</v>
       </c>
       <c r="CL3" t="n">
-        <v>247.2829895019531</v>
+        <v>276.0189819335938</v>
       </c>
       <c r="CM3" t="n">
-        <v>247.4781494140625</v>
+        <v>275.9384765625</v>
       </c>
       <c r="CN3" t="n">
-        <v>247.9806823730469</v>
+        <v>275.5956726074219</v>
       </c>
       <c r="CO3" t="n">
-        <v>248.5252685546875</v>
+        <v>275.4439086914062</v>
       </c>
       <c r="CP3" t="n">
-        <v>248.8952026367188</v>
+        <v>275.2433471679688</v>
       </c>
       <c r="CQ3" t="n">
-        <v>249.1701507568359</v>
+        <v>275.0708312988281</v>
       </c>
       <c r="CR3" t="n">
-        <v>249.3348541259766</v>
+        <v>274.9053039550781</v>
       </c>
       <c r="CS3" t="n">
-        <v>249.3503723144531</v>
+        <v>274.7739562988281</v>
       </c>
       <c r="CT3" t="n">
-        <v>248.9462432861328</v>
+        <v>274.8313903808594</v>
       </c>
       <c r="CU3" t="n">
-        <v>248.6079254150391</v>
+        <v>274.8643188476562</v>
       </c>
       <c r="CV3" t="n">
-        <v>249.8223571777344</v>
+        <v>274.9006958007812</v>
       </c>
       <c r="CW3" t="n">
-        <v>250.7679748535156</v>
+        <v>274.9620056152344</v>
       </c>
       <c r="CX3" t="n">
-        <v>250.4060211181641</v>
+        <v>275.0270080566406</v>
       </c>
       <c r="CY3" t="n">
-        <v>247.5362854003906</v>
+        <v>275.061279296875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>247.3839569091797</v>
+        <v>275.0010986328125</v>
       </c>
       <c r="DA3" t="n">
-        <v>248.0975036621094</v>
+        <v>275.0312805175781</v>
       </c>
       <c r="DB3" t="n">
-        <v>249.0526733398438</v>
+        <v>275.1653137207031</v>
       </c>
       <c r="DC3" t="n">
-        <v>249.3256530761719</v>
+        <v>275.1225280761719</v>
       </c>
       <c r="DD3" t="n">
-        <v>249.71142578125</v>
+        <v>275.121337890625</v>
       </c>
       <c r="DE3" t="n">
-        <v>249.5428314208984</v>
+        <v>275.0736694335938</v>
       </c>
       <c r="DF3" t="n">
-        <v>250.910888671875</v>
+        <v>275.17578125</v>
       </c>
       <c r="DG3" t="n">
-        <v>250.4070281982422</v>
+        <v>275.1842346191406</v>
       </c>
       <c r="DH3" t="n">
-        <v>251.0649719238281</v>
+        <v>275.1741943359375</v>
       </c>
       <c r="DI3" t="n">
-        <v>252.9456939697266</v>
+        <v>275.1745300292969</v>
       </c>
       <c r="DJ3" t="n">
-        <v>253.6230163574219</v>
+        <v>275.1297912597656</v>
       </c>
       <c r="DK3" t="n">
-        <v>252.3282928466797</v>
+        <v>275.0110168457031</v>
       </c>
       <c r="DL3" t="n">
-        <v>251.1761322021484</v>
+        <v>274.9787902832031</v>
       </c>
       <c r="DM3" t="n">
-        <v>249.8071899414062</v>
+        <v>274.9572143554688</v>
       </c>
       <c r="DN3" t="n">
-        <v>249.1315307617188</v>
+        <v>274.9606628417969</v>
       </c>
       <c r="DO3" t="n">
-        <v>250.3845367431641</v>
+        <v>275.0278015136719</v>
       </c>
       <c r="DP3" t="n">
-        <v>251.1910858154297</v>
+        <v>275.143310546875</v>
       </c>
       <c r="DQ3" t="n">
-        <v>251.4718933105469</v>
+        <v>275.3152465820312</v>
       </c>
       <c r="DR3" t="n">
-        <v>250.6673889160156</v>
+        <v>275.3594360351562</v>
       </c>
       <c r="DS3" t="n">
-        <v>247.8489532470703</v>
+        <v>275.3935241699219</v>
       </c>
       <c r="DT3" t="n">
-        <v>246.9154663085938</v>
+        <v>275.0712890625</v>
       </c>
       <c r="DU3" t="n">
-        <v>245.034423828125</v>
+        <v>274.8103942871094</v>
       </c>
       <c r="DV3" t="n">
-        <v>245.1002807617188</v>
+        <v>275.376220703125</v>
       </c>
       <c r="DW3" t="n">
-        <v>245.1006011962891</v>
+        <v>277.7586975097656</v>
       </c>
       <c r="DX3" t="n">
-        <v>244.7151641845703</v>
+        <v>278.4638366699219</v>
       </c>
       <c r="DY3" t="n">
-        <v>243.37548828125</v>
+        <v>278.9550170898438</v>
       </c>
       <c r="DZ3" t="n">
-        <v>242.6514282226562</v>
+        <v>280.5576477050781</v>
       </c>
       <c r="EA3" t="n">
-        <v>242.6010437011719</v>
+        <v>281.5715026855469</v>
       </c>
       <c r="EB3" t="n">
-        <v>242.7552185058594</v>
+        <v>284.1573181152344</v>
       </c>
       <c r="EC3" t="n">
-        <v>242.7628936767578</v>
+        <v>285.7235107421875</v>
       </c>
       <c r="ED3" t="n">
-        <v>242.9779815673828</v>
+        <v>287.3582153320312</v>
       </c>
       <c r="EE3" t="n">
-        <v>243.0700836181641</v>
+        <v>289.5152893066406</v>
       </c>
       <c r="EF3" t="n">
-        <v>243.2103881835938</v>
+        <v>293.54296875</v>
       </c>
       <c r="EG3" t="n">
-        <v>244.4375915527344</v>
+        <v>295.1940002441406</v>
       </c>
       <c r="EH3" t="n">
-        <v>246.4091796875</v>
+        <v>295.0811767578125</v>
       </c>
       <c r="EI3" t="n">
-        <v>247.4168548583984</v>
+        <v>294.6702880859375</v>
       </c>
       <c r="EJ3" t="n">
-        <v>249.2842254638672</v>
+        <v>294.2933654785156</v>
       </c>
       <c r="EK3" t="n">
-        <v>249.5992126464844</v>
+        <v>292.2010498046875</v>
       </c>
       <c r="EL3" t="n">
-        <v>249.8200378417969</v>
+        <v>290.443603515625</v>
       </c>
       <c r="EM3" t="n">
-        <v>253.3305358886719</v>
+        <v>288.2537231445312</v>
       </c>
       <c r="EN3" t="n">
-        <v>255.1473388671875</v>
+        <v>287.4568176269531</v>
       </c>
       <c r="EO3" t="n">
-        <v>254.5764770507812</v>
+        <v>287.0518493652344</v>
       </c>
       <c r="EP3" t="n">
-        <v>253.4223480224609</v>
+        <v>287.9228515625</v>
       </c>
       <c r="EQ3" t="n">
-        <v>251.2108001708984</v>
+        <v>292.3991394042969</v>
       </c>
       <c r="ER3" t="n">
-        <v>250.149658203125</v>
+        <v>293.7611999511719</v>
       </c>
       <c r="ES3" t="n">
-        <v>249.0606079101562</v>
+        <v>296.7631225585938</v>
       </c>
       <c r="ET3" t="n">
-        <v>248.4016265869141</v>
+        <v>299.0221862792969</v>
       </c>
       <c r="EU3" t="n">
-        <v>247.859375</v>
+        <v>299.40087890625</v>
       </c>
       <c r="EV3" t="n">
-        <v>247.21435546875</v>
+        <v>300.4847412109375</v>
       </c>
       <c r="EW3" t="n">
-        <v>247.4131622314453</v>
+        <v>300.2262878417969</v>
       </c>
       <c r="EX3" t="n">
-        <v>248.7439422607422</v>
+        <v>300.1108093261719</v>
       </c>
       <c r="EY3" t="n">
-        <v>249.1996154785156</v>
+        <v>299.8998718261719</v>
       </c>
       <c r="EZ3" t="n">
-        <v>249.334716796875</v>
+        <v>299.1448059082031</v>
       </c>
       <c r="FA3" t="n">
-        <v>253.3199157714844</v>
+        <v>298.4371337890625</v>
       </c>
       <c r="FB3" t="n">
-        <v>253.8832550048828</v>
+        <v>299.9270629882812</v>
       </c>
       <c r="FC3" t="n">
-        <v>252.7405700683594</v>
+        <v>301.2034301757812</v>
       </c>
       <c r="FD3" t="n">
-        <v>251.0054321289062</v>
+        <v>301.1965026855469</v>
       </c>
       <c r="FE3" t="n">
-        <v>249.9259796142578</v>
+        <v>301.3253479003906</v>
       </c>
       <c r="FF3" t="n">
-        <v>249.1488037109375</v>
+        <v>301.8138732910156</v>
       </c>
       <c r="FG3" t="n">
-        <v>248.4687194824219</v>
+        <v>304.6758422851562</v>
       </c>
       <c r="FH3" t="n">
-        <v>248.6245269775391</v>
+        <v>305.5105895996094</v>
       </c>
       <c r="FI3" t="n">
-        <v>248.5694274902344</v>
+        <v>307.7235107421875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>248.5542907714844</v>
+        <v>309.8715515136719</v>
       </c>
       <c r="FK3" t="n">
-        <v>249.0069274902344</v>
+        <v>312.2451477050781</v>
       </c>
       <c r="FL3" t="n">
-        <v>250.4297790527344</v>
+        <v>312.5089111328125</v>
       </c>
       <c r="FM3" t="n">
-        <v>250.9590301513672</v>
+        <v>311.2945861816406</v>
       </c>
       <c r="FN3" t="n">
-        <v>250.7953186035156</v>
+        <v>310.4471740722656</v>
       </c>
       <c r="FO3" t="n">
-        <v>253.8082733154297</v>
+        <v>309.620361328125</v>
       </c>
       <c r="FP3" t="n">
-        <v>256.8966979980469</v>
+        <v>308.1805114746094</v>
       </c>
       <c r="FQ3" t="n">
-        <v>259.6575927734375</v>
+        <v>307.6754150390625</v>
       </c>
       <c r="FR3" t="n">
-        <v>264.2459411621094</v>
+        <v>308.0340270996094</v>
       </c>
       <c r="FS3" t="n">
-        <v>263.0150146484375</v>
+        <v>308.2075805664062</v>
       </c>
       <c r="FT3" t="n">
-        <v>256.8826599121094</v>
+        <v>308.0539245605469</v>
       </c>
       <c r="FU3" t="n">
-        <v>249.7113647460938</v>
+        <v>308.0498046875</v>
       </c>
       <c r="FV3" t="n">
-        <v>248.2129364013672</v>
+        <v>310.5570678710938</v>
       </c>
       <c r="FW3" t="n">
-        <v>248.0132141113281</v>
+        <v>314.0427856445312</v>
       </c>
       <c r="FX3" t="n">
-        <v>248.2903900146484</v>
+        <v>314.8396301269531</v>
       </c>
       <c r="FY3" t="n">
-        <v>248.8927764892578</v>
+        <v>315.3085632324219</v>
       </c>
       <c r="FZ3" t="n">
-        <v>250.6761627197266</v>
+        <v>315.3086242675781</v>
       </c>
       <c r="GA3" t="n">
-        <v>250.0964965820312</v>
+        <v>315.2029418945312</v>
       </c>
       <c r="GB3" t="n">
-        <v>249.4331665039062</v>
+        <v>314.2841186523438</v>
       </c>
       <c r="GC3" t="n">
-        <v>249.0386047363281</v>
+        <v>313.3800048828125</v>
       </c>
       <c r="GD3" t="n">
-        <v>249.2484283447266</v>
+        <v>311.7414245605469</v>
       </c>
       <c r="GE3" t="n">
-        <v>251.0977325439453</v>
+        <v>311.5449829101562</v>
       </c>
       <c r="GF3" t="n">
-        <v>251.5521545410156</v>
+        <v>311.2514038085938</v>
       </c>
       <c r="GG3" t="n">
-        <v>251.5592803955078</v>
+        <v>311.0671081542969</v>
       </c>
       <c r="GH3" t="n">
-        <v>251.8932495117188</v>
+        <v>310.6341247558594</v>
       </c>
       <c r="GI3" t="n">
-        <v>250.3138427734375</v>
+        <v>310.3747253417969</v>
       </c>
       <c r="GJ3" t="n">
-        <v>247.6373596191406</v>
+        <v>310.2714538574219</v>
       </c>
       <c r="GK3" t="n">
-        <v>248.5407867431641</v>
+        <v>310.1649169921875</v>
       </c>
       <c r="GL3" t="n">
-        <v>249.5758972167969</v>
+        <v>309.6097412109375</v>
       </c>
       <c r="GM3" t="n">
-        <v>249.5147857666016</v>
+        <v>309.48388671875</v>
       </c>
       <c r="GN3" t="n">
-        <v>248.5475616455078</v>
+        <v>309.5671081542969</v>
       </c>
       <c r="GO3" t="n">
-        <v>247.3357543945312</v>
+        <v>310.0107727050781</v>
       </c>
       <c r="GP3" t="n">
-        <v>246.5972290039062</v>
+        <v>310.2355346679688</v>
       </c>
       <c r="GQ3" t="n">
-        <v>246.8222198486328</v>
+        <v>310.9890747070312</v>
       </c>
       <c r="GR3" t="n">
-        <v>247.5477294921875</v>
+        <v>310.9674072265625</v>
       </c>
       <c r="GS3" t="n">
-        <v>248.8699493408203</v>
+        <v>309.734375</v>
       </c>
       <c r="GT3" t="n">
-        <v>249.1593627929688</v>
+        <v>308.7711791992188</v>
       </c>
       <c r="GU3" t="n">
-        <v>249.607177734375</v>
+        <v>306.7259826660156</v>
       </c>
       <c r="GV3" t="n">
-        <v>250.4829254150391</v>
+        <v>304.9772033691406</v>
       </c>
       <c r="GW3" t="n">
-        <v>251.2254486083984</v>
+        <v>304.6311340332031</v>
       </c>
       <c r="GX3" t="n">
-        <v>251.4579162597656</v>
+        <v>304.1305236816406</v>
       </c>
       <c r="GY3" t="n">
-        <v>251.2359771728516</v>
+        <v>303.5235290527344</v>
       </c>
       <c r="GZ3" t="n">
-        <v>251.4172821044922</v>
+        <v>303.2820739746094</v>
       </c>
       <c r="HA3" t="n">
-        <v>251.4513244628906</v>
+        <v>303.1163635253906</v>
       </c>
       <c r="HB3" t="n">
-        <v>251.892578125</v>
+        <v>302.7825622558594</v>
       </c>
       <c r="HC3" t="n">
-        <v>253.5328063964844</v>
+        <v>302.507568359375</v>
       </c>
       <c r="HD3" t="n">
-        <v>255.1236572265625</v>
+        <v>302.2547912597656</v>
       </c>
       <c r="HE3" t="n">
-        <v>255.6996612548828</v>
+        <v>301.4603881835938</v>
       </c>
       <c r="HF3" t="n">
-        <v>256.4162902832031</v>
+        <v>301.1000366210938</v>
       </c>
       <c r="HG3" t="n">
-        <v>256.8763427734375</v>
+        <v>300.6094665527344</v>
       </c>
       <c r="HH3" t="n">
-        <v>255.6469116210938</v>
+        <v>300.8438720703125</v>
       </c>
       <c r="HI3" t="n">
-        <v>255.1468048095703</v>
+        <v>301.070068359375</v>
       </c>
       <c r="HJ3" t="n">
-        <v>256.1873474121094</v>
+        <v>301.5550537109375</v>
       </c>
       <c r="HK3" t="n">
-        <v>259.6935424804688</v>
+        <v>302.5528564453125</v>
       </c>
       <c r="HL3" t="n">
-        <v>262.2643737792969</v>
+        <v>304.7572937011719</v>
       </c>
       <c r="HM3" t="n">
-        <v>263.4733581542969</v>
+        <v>307.0776672363281</v>
       </c>
       <c r="HN3" t="n">
-        <v>263.9297790527344</v>
+        <v>309.2091064453125</v>
       </c>
       <c r="HO3" t="n">
-        <v>263.4599914550781</v>
+        <v>309.8984375</v>
       </c>
       <c r="HP3" t="n">
-        <v>262.9342346191406</v>
+        <v>308.9672546386719</v>
       </c>
       <c r="HQ3" t="n">
-        <v>263.1606140136719</v>
+        <v>308.5961608886719</v>
       </c>
       <c r="HR3" t="n">
-        <v>265.5487976074219</v>
+        <v>307.3018493652344</v>
       </c>
       <c r="HS3" t="n">
-        <v>271.7118530273438</v>
+        <v>307.159423828125</v>
       </c>
       <c r="HT3" t="n">
-        <v>276.6427612304688</v>
+        <v>307.3446350097656</v>
       </c>
       <c r="HU3" t="n">
-        <v>281.41552734375</v>
+        <v>307.5000915527344</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>307.4223937988281</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>307.2948913574219</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>307.2069396972656</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>307.1671447753906</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>307.1086120605469</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>307.2156677246094</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>307.3175048828125</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>307.6552124023438</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>308.4064636230469</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>309.8700866699219</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>310.6373596191406</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>310.0940551757812</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>309.65576171875</v>
+      </c>
+      <c r="II3" t="n">
+        <v>309.8143615722656</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>310.1630249023438</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>309.9822998046875</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>310.285888671875</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>310.64794921875</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>311.1616821289062</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>311.0885009765625</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>311.0628051757812</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>310.1028137207031</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>308.6940307617188</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>308.0921630859375</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>307.9941711425781</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>308.1438598632812</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>308.4486999511719</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>308.5651245117188</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>309.0513916015625</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>309.3108215332031</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>309.3106079101562</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>309.191650390625</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>309.0989990234375</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>309.976318359375</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>310.0047607421875</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>310.1393127441406</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>310.0972290039062</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>310.0631713867188</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>309.7567443847656</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>309.3634338378906</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>308.7826843261719</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>308.0496826171875</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>307.9954223632812</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>308.2348937988281</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>308.2138977050781</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>308.1790466308594</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>308.3289184570312</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>308.4683837890625</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>308.518798828125</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>308.6746215820312</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>308.7784118652344</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>308.8582458496094</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>308.9389953613281</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>309.1073608398438</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>309.2090454101562</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>309.2954711914062</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>309.3002319335938</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>309.2808837890625</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>309.2462463378906</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>309.25048828125</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>308.6989440917969</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>307.8648681640625</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>307.1224060058594</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>306.4118957519531</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>306.1710510253906</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>306.2022094726562</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>306.6452941894531</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>307.0321044921875</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>307.29833984375</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>307.4966125488281</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>307.6178283691406</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>307.5741882324219</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>307.4386291503906</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>307.2459106445312</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>307.1510620117188</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>306.8918151855469</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>306.9164123535156</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>307.1224670410156</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>307.2804565429688</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>307.3568115234375</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>307.4145202636719</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>307.4866027832031</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>307.4303588867188</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>307.4470520019531</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>307.8143005371094</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>308.4610290527344</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>309.1257629394531</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>309.6852722167969</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>308.7079772949219</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>309.2234191894531</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>310.283203125</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>309.9949645996094</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>307.4615478515625</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>301.8077087402344</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>299.1783142089844</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>298.8132629394531</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>296.211181640625</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>295.3750610351562</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>292.9442138671875</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>293.9745178222656</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>294.9104309082031</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>294.5361938476562</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>287.7615966796875</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>279.2207641601562</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>267.1311950683594</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>257.0680847167969</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>255.0355682373047</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>253.305908203125</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>252.7763214111328</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>258.9129333496094</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>267.5143127441406</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>272.5509948730469</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>268.3291931152344</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>257.7029724121094</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>257.1031494140625</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>267.352294921875</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>281.8051452636719</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>296.3449401855469</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>335.8988647460938</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>375.7840881347656</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>393.8299255371094</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>418.8662719726562</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>417.407470703125</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>415.7732849121094</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>416.604736328125</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>420.0960693359375</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>433.9339904785156</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>440.5276184082031</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>462.0371704101562</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>478.51318359375</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>463.5472106933594</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>445.7973327636719</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>445.302734375</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>446.2021179199219</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>443.1573486328125</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>444.6027221679688</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>442.9884033203125</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>439.6629943847656</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>438.8849182128906</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>442.0027465820312</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>449.5196228027344</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>457.41259765625</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>458.3392028808594</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>457.9104309082031</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>457.3100891113281</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>457.5711975097656</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>457.9998779296875</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>461.8193664550781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>911.8355102539062</v>
+        <v>1059.16162109375</v>
       </c>
       <c r="B4" t="n">
-        <v>929.416748046875</v>
+        <v>1062.575439453125</v>
       </c>
       <c r="C4" t="n">
-        <v>942.6400146484375</v>
+        <v>1064.334838867188</v>
       </c>
       <c r="D4" t="n">
-        <v>957.5951538085938</v>
+        <v>1068.11962890625</v>
       </c>
       <c r="E4" t="n">
-        <v>976.7445678710938</v>
+        <v>1073.149780273438</v>
       </c>
       <c r="F4" t="n">
-        <v>999.6305541992188</v>
+        <v>1079.498779296875</v>
       </c>
       <c r="G4" t="n">
-        <v>1025.634521484375</v>
+        <v>1086.744018554688</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.907470703125</v>
+        <v>1096.345825195312</v>
       </c>
       <c r="I4" t="n">
-        <v>1085.704833984375</v>
+        <v>1107.523071289062</v>
       </c>
       <c r="J4" t="n">
-        <v>1118.58984375</v>
+        <v>1121.64990234375</v>
       </c>
       <c r="K4" t="n">
-        <v>1152.435302734375</v>
+        <v>1141.80517578125</v>
       </c>
       <c r="L4" t="n">
-        <v>1188.000854492188</v>
+        <v>1159.53076171875</v>
       </c>
       <c r="M4" t="n">
-        <v>1223.770263671875</v>
+        <v>1197.34033203125</v>
       </c>
       <c r="N4" t="n">
-        <v>1258.003662109375</v>
+        <v>1215.189086914062</v>
       </c>
       <c r="O4" t="n">
-        <v>1319.30517578125</v>
+        <v>1237.138305664062</v>
       </c>
       <c r="P4" t="n">
-        <v>1395.465454101562</v>
+        <v>1249.15380859375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1450.05712890625</v>
+        <v>1256.279174804688</v>
       </c>
       <c r="R4" t="n">
-        <v>1482.197998046875</v>
+        <v>1263.476684570312</v>
       </c>
       <c r="S4" t="n">
-        <v>1504.201538085938</v>
+        <v>1270.691528320312</v>
       </c>
       <c r="T4" t="n">
-        <v>1528.709106445312</v>
+        <v>1287.530029296875</v>
       </c>
       <c r="U4" t="n">
-        <v>1557.633422851562</v>
+        <v>1305.176513671875</v>
       </c>
       <c r="V4" t="n">
-        <v>1590.733276367188</v>
+        <v>1318.139038085938</v>
       </c>
       <c r="W4" t="n">
-        <v>1626.432006835938</v>
+        <v>1330.851318359375</v>
       </c>
       <c r="X4" t="n">
-        <v>1665.666625976562</v>
+        <v>1339.329833984375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1709.547241210938</v>
+        <v>1340.215576171875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1756.106079101562</v>
+        <v>1342.312133789062</v>
       </c>
       <c r="AA4" t="n">
-        <v>1805.320556640625</v>
+        <v>1347.723876953125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1857.323364257812</v>
+        <v>1358.339233398438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1909.354125976562</v>
+        <v>1374.843383789062</v>
       </c>
       <c r="AD4" t="n">
-        <v>1953.409790039062</v>
+        <v>1391.545654296875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1990.466918945312</v>
+        <v>1401.585815429688</v>
       </c>
       <c r="AF4" t="n">
-        <v>2023.869506835938</v>
+        <v>1411.051513671875</v>
       </c>
       <c r="AG4" t="n">
-        <v>2060.785888671875</v>
+        <v>1416.463500976562</v>
       </c>
       <c r="AH4" t="n">
-        <v>2095.933837890625</v>
+        <v>1425.183227539062</v>
       </c>
       <c r="AI4" t="n">
-        <v>2127.92236328125</v>
+        <v>1432.63916015625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2155.0390625</v>
+        <v>1437.275268554688</v>
       </c>
       <c r="AK4" t="n">
-        <v>2183.9248046875</v>
+        <v>1439.973754882812</v>
       </c>
       <c r="AL4" t="n">
-        <v>2221.7392578125</v>
+        <v>1440.271118164062</v>
       </c>
       <c r="AM4" t="n">
-        <v>2258.21923828125</v>
+        <v>1437.515014648438</v>
       </c>
       <c r="AN4" t="n">
-        <v>2294.88330078125</v>
+        <v>1434.17431640625</v>
       </c>
       <c r="AO4" t="n">
-        <v>2358.374755859375</v>
+        <v>1429.402099609375</v>
       </c>
       <c r="AP4" t="n">
-        <v>2393.810546875</v>
+        <v>1422.680908203125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2435.260009765625</v>
+        <v>1415.692138671875</v>
       </c>
       <c r="AR4" t="n">
-        <v>2489.447265625</v>
+        <v>1410.609252929688</v>
       </c>
       <c r="AS4" t="n">
-        <v>2539.7919921875</v>
+        <v>1405.588500976562</v>
       </c>
       <c r="AT4" t="n">
-        <v>2578.9638671875</v>
+        <v>1398.83740234375</v>
       </c>
       <c r="AU4" t="n">
-        <v>2609.49462890625</v>
+        <v>1392.388793945312</v>
       </c>
       <c r="AV4" t="n">
-        <v>2636.45849609375</v>
+        <v>1385.60302734375</v>
       </c>
       <c r="AW4" t="n">
-        <v>2672.572509765625</v>
+        <v>1380.35009765625</v>
       </c>
       <c r="AX4" t="n">
-        <v>2724.864501953125</v>
+        <v>1374.405883789062</v>
       </c>
       <c r="AY4" t="n">
-        <v>2775.154296875</v>
+        <v>1366.866088867188</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2809.23876953125</v>
+        <v>1355.16650390625</v>
       </c>
       <c r="BA4" t="n">
-        <v>2825.379150390625</v>
+        <v>1341.007934570312</v>
       </c>
       <c r="BB4" t="n">
-        <v>2835.73388671875</v>
+        <v>1330.456909179688</v>
       </c>
       <c r="BC4" t="n">
-        <v>2843.843505859375</v>
+        <v>1320.486328125</v>
       </c>
       <c r="BD4" t="n">
-        <v>2866.376953125</v>
+        <v>1314.187866210938</v>
       </c>
       <c r="BE4" t="n">
-        <v>2894.138427734375</v>
+        <v>1310.45849609375</v>
       </c>
       <c r="BF4" t="n">
-        <v>2928.71826171875</v>
+        <v>1308.229248046875</v>
       </c>
       <c r="BG4" t="n">
-        <v>2964.728271484375</v>
+        <v>1306.383911132812</v>
       </c>
       <c r="BH4" t="n">
-        <v>3004.635498046875</v>
+        <v>1304.746215820312</v>
       </c>
       <c r="BI4" t="n">
-        <v>3060.563232421875</v>
+        <v>1302.179443359375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3112.673828125</v>
+        <v>1295.323364257812</v>
       </c>
       <c r="BK4" t="n">
-        <v>3153.889892578125</v>
+        <v>1285.629516601562</v>
       </c>
       <c r="BL4" t="n">
-        <v>3174.750732421875</v>
+        <v>1275.919189453125</v>
       </c>
       <c r="BM4" t="n">
-        <v>3191.900390625</v>
+        <v>1266.98583984375</v>
       </c>
       <c r="BN4" t="n">
-        <v>3205.817138671875</v>
+        <v>1259.991577148438</v>
       </c>
       <c r="BO4" t="n">
-        <v>3222.2685546875</v>
+        <v>1251.185913085938</v>
       </c>
       <c r="BP4" t="n">
-        <v>3236.06494140625</v>
+        <v>1249.260131835938</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3256.478515625</v>
+        <v>1247.868286132812</v>
       </c>
       <c r="BR4" t="n">
-        <v>3279.993408203125</v>
+        <v>1246.550903320312</v>
       </c>
       <c r="BS4" t="n">
-        <v>3292.94677734375</v>
+        <v>1245.326171875</v>
       </c>
       <c r="BT4" t="n">
-        <v>3300.570068359375</v>
+        <v>1243.668212890625</v>
       </c>
       <c r="BU4" t="n">
-        <v>3307.960205078125</v>
+        <v>1240.806274414062</v>
       </c>
       <c r="BV4" t="n">
-        <v>3321.00439453125</v>
+        <v>1236.644775390625</v>
       </c>
       <c r="BW4" t="n">
-        <v>3341.424072265625</v>
+        <v>1231.54150390625</v>
       </c>
       <c r="BX4" t="n">
-        <v>3370.616943359375</v>
+        <v>1225.546997070312</v>
       </c>
       <c r="BY4" t="n">
-        <v>3398.914794921875</v>
+        <v>1214.911376953125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3412.275390625</v>
+        <v>1208.896850585938</v>
       </c>
       <c r="CA4" t="n">
-        <v>3419.05517578125</v>
+        <v>1204.394897460938</v>
       </c>
       <c r="CB4" t="n">
-        <v>3455.025634765625</v>
+        <v>1200.387329101562</v>
       </c>
       <c r="CC4" t="n">
-        <v>3490.622802734375</v>
+        <v>1196.454345703125</v>
       </c>
       <c r="CD4" t="n">
-        <v>3530.9892578125</v>
+        <v>1192.551147460938</v>
       </c>
       <c r="CE4" t="n">
-        <v>3568.654296875</v>
+        <v>1187.906372070312</v>
       </c>
       <c r="CF4" t="n">
-        <v>3599.86572265625</v>
+        <v>1186.225830078125</v>
       </c>
       <c r="CG4" t="n">
-        <v>3616.71142578125</v>
+        <v>1184.061279296875</v>
       </c>
       <c r="CH4" t="n">
-        <v>3624.001708984375</v>
+        <v>1181.756591796875</v>
       </c>
       <c r="CI4" t="n">
-        <v>3628.4326171875</v>
+        <v>1179.627075195312</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3634.607177734375</v>
+        <v>1178.3359375</v>
       </c>
       <c r="CK4" t="n">
-        <v>3639.9384765625</v>
+        <v>1176.858276367188</v>
       </c>
       <c r="CL4" t="n">
-        <v>3647.660888671875</v>
+        <v>1175.357055664062</v>
       </c>
       <c r="CM4" t="n">
-        <v>3651.928466796875</v>
+        <v>1174.076782226562</v>
       </c>
       <c r="CN4" t="n">
-        <v>3653.60205078125</v>
+        <v>1172.316650390625</v>
       </c>
       <c r="CO4" t="n">
-        <v>3656.012939453125</v>
+        <v>1171.605590820312</v>
       </c>
       <c r="CP4" t="n">
-        <v>3658.825927734375</v>
+        <v>1170.974243164062</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3664.67431640625</v>
+        <v>1170.38427734375</v>
       </c>
       <c r="CR4" t="n">
-        <v>3672.54931640625</v>
+        <v>1170.161254882812</v>
       </c>
       <c r="CS4" t="n">
-        <v>3687.02197265625</v>
+        <v>1169.563598632812</v>
       </c>
       <c r="CT4" t="n">
-        <v>3694.814453125</v>
+        <v>1168.840576171875</v>
       </c>
       <c r="CU4" t="n">
-        <v>3694.050048828125</v>
+        <v>1168.4892578125</v>
       </c>
       <c r="CV4" t="n">
-        <v>3683.515869140625</v>
+        <v>1168.112426757812</v>
       </c>
       <c r="CW4" t="n">
-        <v>3684.13818359375</v>
+        <v>1168.1396484375</v>
       </c>
       <c r="CX4" t="n">
-        <v>3699.1220703125</v>
+        <v>1170.676879882812</v>
       </c>
       <c r="CY4" t="n">
-        <v>3719.646240234375</v>
+        <v>1174.447143554688</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3720.259765625</v>
+        <v>1185.865356445312</v>
       </c>
       <c r="DA4" t="n">
-        <v>3713.15234375</v>
+        <v>1189.098022460938</v>
       </c>
       <c r="DB4" t="n">
-        <v>3711.681640625</v>
+        <v>1191.107543945312</v>
       </c>
       <c r="DC4" t="n">
-        <v>3712.4658203125</v>
+        <v>1192.254150390625</v>
       </c>
       <c r="DD4" t="n">
-        <v>3709.42529296875</v>
+        <v>1192.912353515625</v>
       </c>
       <c r="DE4" t="n">
-        <v>3704.161376953125</v>
+        <v>1194.468139648438</v>
       </c>
       <c r="DF4" t="n">
-        <v>3690.038818359375</v>
+        <v>1197.451171875</v>
       </c>
       <c r="DG4" t="n">
-        <v>3692.044189453125</v>
+        <v>1200.55908203125</v>
       </c>
       <c r="DH4" t="n">
-        <v>3697.365478515625</v>
+        <v>1205.773193359375</v>
       </c>
       <c r="DI4" t="n">
-        <v>3697.86962890625</v>
+        <v>1208.531127929688</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3697.42919921875</v>
+        <v>1215.13232421875</v>
       </c>
       <c r="DK4" t="n">
-        <v>3696.067138671875</v>
+        <v>1219.09375</v>
       </c>
       <c r="DL4" t="n">
-        <v>3695.539306640625</v>
+        <v>1221.426635742188</v>
       </c>
       <c r="DM4" t="n">
-        <v>3692.466552734375</v>
+        <v>1223.535278320312</v>
       </c>
       <c r="DN4" t="n">
-        <v>3686.5712890625</v>
+        <v>1224.562866210938</v>
       </c>
       <c r="DO4" t="n">
-        <v>3647.615234375</v>
+        <v>1225.020263671875</v>
       </c>
       <c r="DP4" t="n">
-        <v>3637.524169921875</v>
+        <v>1225.250610351562</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3629.84912109375</v>
+        <v>1225.543823242188</v>
       </c>
       <c r="DR4" t="n">
-        <v>3626.65576171875</v>
+        <v>1225.677490234375</v>
       </c>
       <c r="DS4" t="n">
-        <v>3631.03125</v>
+        <v>1225.7998046875</v>
       </c>
       <c r="DT4" t="n">
-        <v>3634.871826171875</v>
+        <v>1226.752319335938</v>
       </c>
       <c r="DU4" t="n">
-        <v>3633.194091796875</v>
+        <v>1237.320556640625</v>
       </c>
       <c r="DV4" t="n">
-        <v>3630.19580078125</v>
+        <v>1241.9248046875</v>
       </c>
       <c r="DW4" t="n">
-        <v>3619.13427734375</v>
+        <v>1249.01171875</v>
       </c>
       <c r="DX4" t="n">
-        <v>3606.659912109375</v>
+        <v>1254.083618164062</v>
       </c>
       <c r="DY4" t="n">
-        <v>3598.792236328125</v>
+        <v>1259.49560546875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3595.33154296875</v>
+        <v>1270.024780273438</v>
       </c>
       <c r="EA4" t="n">
-        <v>3594.069091796875</v>
+        <v>1276.267944335938</v>
       </c>
       <c r="EB4" t="n">
-        <v>3592.591064453125</v>
+        <v>1289.978637695312</v>
       </c>
       <c r="EC4" t="n">
-        <v>3589.93505859375</v>
+        <v>1296.3525390625</v>
       </c>
       <c r="ED4" t="n">
-        <v>3574.26513671875</v>
+        <v>1303.109008789062</v>
       </c>
       <c r="EE4" t="n">
-        <v>3569.1943359375</v>
+        <v>1314.619384765625</v>
       </c>
       <c r="EF4" t="n">
-        <v>3564.537109375</v>
+        <v>1332.528564453125</v>
       </c>
       <c r="EG4" t="n">
-        <v>3560.41015625</v>
+        <v>1368.371337890625</v>
       </c>
       <c r="EH4" t="n">
-        <v>3548.252685546875</v>
+        <v>1389.53271484375</v>
       </c>
       <c r="EI4" t="n">
-        <v>3528.5888671875</v>
+        <v>1418.171020507812</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3461.333984375</v>
+        <v>1428.674682617188</v>
       </c>
       <c r="EK4" t="n">
-        <v>3448.895263671875</v>
+        <v>1454.96484375</v>
       </c>
       <c r="EL4" t="n">
-        <v>3442.505859375</v>
+        <v>1465.322143554688</v>
       </c>
       <c r="EM4" t="n">
-        <v>3427.365966796875</v>
+        <v>1479.68603515625</v>
       </c>
       <c r="EN4" t="n">
-        <v>3418.5</v>
+        <v>1491.443359375</v>
       </c>
       <c r="EO4" t="n">
-        <v>3399.017822265625</v>
+        <v>1507.285522460938</v>
       </c>
       <c r="EP4" t="n">
-        <v>3386.32958984375</v>
+        <v>1514.803344726562</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3395.207275390625</v>
+        <v>1535.6767578125</v>
       </c>
       <c r="ER4" t="n">
-        <v>3398.006591796875</v>
+        <v>1553.192626953125</v>
       </c>
       <c r="ES4" t="n">
-        <v>3388.337646484375</v>
+        <v>1584.75146484375</v>
       </c>
       <c r="ET4" t="n">
-        <v>3386.382568359375</v>
+        <v>1610.873168945312</v>
       </c>
       <c r="EU4" t="n">
-        <v>3385.901611328125</v>
+        <v>1629.576049804688</v>
       </c>
       <c r="EV4" t="n">
-        <v>3386.677734375</v>
+        <v>1655.192260742188</v>
       </c>
       <c r="EW4" t="n">
-        <v>3396.9794921875</v>
+        <v>1719.768920898438</v>
       </c>
       <c r="EX4" t="n">
-        <v>3403.131591796875</v>
+        <v>1768.914794921875</v>
       </c>
       <c r="EY4" t="n">
-        <v>3397.24853515625</v>
+        <v>1796.109008789062</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3391.615966796875</v>
+        <v>1825.153564453125</v>
       </c>
       <c r="FA4" t="n">
-        <v>3390.216552734375</v>
+        <v>1865.281372070312</v>
       </c>
       <c r="FB4" t="n">
-        <v>3404.5849609375</v>
+        <v>1874.048950195312</v>
       </c>
       <c r="FC4" t="n">
-        <v>3466.15869140625</v>
+        <v>1901.609130859375</v>
       </c>
       <c r="FD4" t="n">
-        <v>3477.33447265625</v>
+        <v>1947.331420898438</v>
       </c>
       <c r="FE4" t="n">
-        <v>3471.985595703125</v>
+        <v>1968.20703125</v>
       </c>
       <c r="FF4" t="n">
-        <v>3471.83984375</v>
+        <v>1987.6796875</v>
       </c>
       <c r="FG4" t="n">
-        <v>3484.061279296875</v>
+        <v>2025.180053710938</v>
       </c>
       <c r="FH4" t="n">
-        <v>3488.843994140625</v>
+        <v>2038.838256835938</v>
       </c>
       <c r="FI4" t="n">
-        <v>3489.332275390625</v>
+        <v>2078.052734375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3492.22119140625</v>
+        <v>2103.648681640625</v>
       </c>
       <c r="FK4" t="n">
-        <v>3488.251220703125</v>
+        <v>2144.280517578125</v>
       </c>
       <c r="FL4" t="n">
-        <v>3470.29248046875</v>
+        <v>2167.14990234375</v>
       </c>
       <c r="FM4" t="n">
-        <v>3468.32568359375</v>
+        <v>2221.41162109375</v>
       </c>
       <c r="FN4" t="n">
-        <v>3449.465576171875</v>
+        <v>2239.171142578125</v>
       </c>
       <c r="FO4" t="n">
-        <v>3440.552490234375</v>
+        <v>2254.74609375</v>
       </c>
       <c r="FP4" t="n">
-        <v>3420.941162109375</v>
+        <v>2278.71826171875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3413.010498046875</v>
+        <v>2293.804931640625</v>
       </c>
       <c r="FR4" t="n">
-        <v>3415.931640625</v>
+        <v>2307.25732421875</v>
       </c>
       <c r="FS4" t="n">
-        <v>3441.552001953125</v>
+        <v>2326.277099609375</v>
       </c>
       <c r="FT4" t="n">
-        <v>3442.04833984375</v>
+        <v>2348.7587890625</v>
       </c>
       <c r="FU4" t="n">
-        <v>3421.385498046875</v>
+        <v>2354.45458984375</v>
       </c>
       <c r="FV4" t="n">
-        <v>3399.487060546875</v>
+        <v>2358.60009765625</v>
       </c>
       <c r="FW4" t="n">
-        <v>3378.085205078125</v>
+        <v>2348.190673828125</v>
       </c>
       <c r="FX4" t="n">
-        <v>3381.14208984375</v>
+        <v>2342.087158203125</v>
       </c>
       <c r="FY4" t="n">
-        <v>3380.412109375</v>
+        <v>2335.67529296875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3362.28125</v>
+        <v>2342.123046875</v>
       </c>
       <c r="GA4" t="n">
-        <v>3326.368896484375</v>
+        <v>2349.107421875</v>
       </c>
       <c r="GB4" t="n">
-        <v>3317.44677734375</v>
+        <v>2363.24365234375</v>
       </c>
       <c r="GC4" t="n">
-        <v>3296.225341796875</v>
+        <v>2367.318359375</v>
       </c>
       <c r="GD4" t="n">
-        <v>3279.166015625</v>
+        <v>2376.7294921875</v>
       </c>
       <c r="GE4" t="n">
-        <v>3229.596923828125</v>
+        <v>2377.125732421875</v>
       </c>
       <c r="GF4" t="n">
-        <v>3214.463623046875</v>
+        <v>2378.05517578125</v>
       </c>
       <c r="GG4" t="n">
-        <v>3184.79638671875</v>
+        <v>2377.6064453125</v>
       </c>
       <c r="GH4" t="n">
-        <v>3157.991455078125</v>
+        <v>2377.04345703125</v>
       </c>
       <c r="GI4" t="n">
-        <v>3072.610107421875</v>
+        <v>2376.8291015625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2984.26806640625</v>
+        <v>2376.39453125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2913.984130859375</v>
+        <v>2376.108154296875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2871.77880859375</v>
+        <v>2375.72607421875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2857.748779296875</v>
+        <v>2373.812744140625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2841.60205078125</v>
+        <v>2372.671142578125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2788.84375</v>
+        <v>2361.455810546875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2747.39599609375</v>
+        <v>2344.61865234375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2710.932373046875</v>
+        <v>2335.345458984375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2660.265380859375</v>
+        <v>2330.75537109375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2561.42333984375</v>
+        <v>2329.677978515625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2532.18994140625</v>
+        <v>2329.661376953125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2483.091064453125</v>
+        <v>2322.815673828125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2400.14208984375</v>
+        <v>2311.466552734375</v>
       </c>
       <c r="GW4" t="n">
-        <v>2304.329345703125</v>
+        <v>2306.5791015625</v>
       </c>
       <c r="GX4" t="n">
-        <v>2258.108642578125</v>
+        <v>2307.868408203125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2212.25634765625</v>
+        <v>2308.635009765625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2140.925537109375</v>
+        <v>2309.162353515625</v>
       </c>
       <c r="HA4" t="n">
-        <v>2077.1005859375</v>
+        <v>2309.35986328125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2020.99169921875</v>
+        <v>2307.83642578125</v>
       </c>
       <c r="HC4" t="n">
-        <v>1933.89013671875</v>
+        <v>2305.664794921875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1856.176147460938</v>
+        <v>2304.688720703125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1819.186157226562</v>
+        <v>2303.15673828125</v>
       </c>
       <c r="HF4" t="n">
-        <v>1711.529052734375</v>
+        <v>2299.654296875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1651.847412109375</v>
+        <v>2293.379638671875</v>
       </c>
       <c r="HH4" t="n">
-        <v>1568.261474609375</v>
+        <v>2294.829833984375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1511.12060546875</v>
+        <v>2296.835205078125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1450.44921875</v>
+        <v>2300.441162109375</v>
       </c>
       <c r="HK4" t="n">
-        <v>1385.822265625</v>
+        <v>2300.288818359375</v>
       </c>
       <c r="HL4" t="n">
-        <v>1312.267456054688</v>
+        <v>2285.7451171875</v>
       </c>
       <c r="HM4" t="n">
-        <v>1240.926391601562</v>
+        <v>2263.6982421875</v>
       </c>
       <c r="HN4" t="n">
-        <v>1152.068115234375</v>
+        <v>2251.76123046875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1103.077880859375</v>
+        <v>2240.06591796875</v>
       </c>
       <c r="HP4" t="n">
-        <v>1064.19189453125</v>
+        <v>2236.9169921875</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1014.894470214844</v>
+        <v>2234.85302734375</v>
       </c>
       <c r="HR4" t="n">
-        <v>959.346923828125</v>
+        <v>2227.027099609375</v>
       </c>
       <c r="HS4" t="n">
-        <v>906.2232055664062</v>
+        <v>2221.302734375</v>
       </c>
       <c r="HT4" t="n">
-        <v>856.69873046875</v>
+        <v>2212.61279296875</v>
       </c>
       <c r="HU4" t="n">
-        <v>815.060791015625</v>
+        <v>2206.21923828125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2204.804931640625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2204.69775390625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2204.67724609375</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2204.66796875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2204.66552734375</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2204.6201171875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2204.591064453125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2204.498779296875</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2204.304931640625</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2203.986083984375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2203.94970703125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2204.44970703125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2206.192138671875</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2211.662841796875</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2222.859619140625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2237.131591796875</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2238.480224609375</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2239.798828125</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2241.81787109375</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2241.856201171875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2243.435302734375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2258.29150390625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2261.86083984375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2262.302734375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2261.82421875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2259.949462890625</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2257.614990234375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2255.34033203125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2252.303466796875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2250.94677734375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2249.792236328125</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2248.897216796875</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2249.186767578125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2245.04736328125</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2243.6181640625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2242.06787109375</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2241.325439453125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2240.755126953125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2239.387451171875</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2237.8759765625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2235.491455078125</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2231.53076171875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2216.105712890625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2209.90185546875</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2208.493896484375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2205.355712890625</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2199.430419921875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2194.560791015625</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2193.177978515625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2191.1904296875</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2188.854736328125</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2183.706787109375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2177.33984375</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2169.1806640625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2167.70703125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2167.41162109375</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2167.35498046875</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2167.332275390625</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2167.2919921875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2163.138916015625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2144.674560546875</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2139.794921875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2145.1865234375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2159.44189453125</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2161.03125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2161.4375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2161.412109375</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2161.052734375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2160.84814453125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2160.707275390625</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2162.018310546875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2169.12646484375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2169.08154296875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2169.79052734375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2175.67822265625</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2194.517333984375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2196.183349609375</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2194.7314453125</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2193.9951171875</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2193.45458984375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2192.968505859375</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2192.43994140625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2191.534423828125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2172.779296875</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2151.134521484375</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2135.351806640625</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2122.765869140625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2103.82861328125</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2059.63525390625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2015.150390625</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1963.558349609375</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1879.78857421875</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1786.587646484375</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1704.610961914062</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1659.536743164062</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1609.68115234375</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1550.4423828125</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1510.953979492188</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1432.264038085938</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1325.79443359375</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1256.798217773438</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1179.93505859375</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1054.166137695312</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>987.1947021484375</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>921.3285522460938</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>861.9774780273438</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>833.490234375</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>800.7022094726562</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>764.1290283203125</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>752.6019287109375</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>749.2785034179688</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>751.0012817382812</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>800.8917236328125</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>847.4651489257812</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>859.037841796875</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>878.8663940429688</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>882.9564208984375</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>891.1231079101562</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>911.0146484375</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>934.433837890625</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>941.478759765625</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>976.8121948242188</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>1015.753662109375</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>1027.151245117188</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>1031.154052734375</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>1020.627746582031</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>964.5973510742188</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>935.3023681640625</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>848.9476928710938</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>785.7882080078125</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>807.9664916992188</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>826.1157836914062</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>798.906494140625</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>772.5884399414062</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>742.3629150390625</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>702.5480346679688</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>689.2927856445312</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>685.7742919921875</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>682.3195190429688</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>680.9065551757812</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>677.7721557617188</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>673.7698974609375</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>678.76708984375</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>698.095703125</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>715.46533203125</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>716.6556396484375</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>714.4533081054688</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>698.4044799804688</v>
       </c>
     </row>
   </sheetData>

--- a/torso_Data_Variable.xlsx
+++ b/torso_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>340.2249755859375</v>
+        <v>288.2594604492188</v>
       </c>
       <c r="B2" t="n">
-        <v>345.376220703125</v>
+        <v>289.5425109863281</v>
       </c>
       <c r="C2" t="n">
-        <v>350.4284057617188</v>
+        <v>290.4618225097656</v>
       </c>
       <c r="D2" t="n">
-        <v>354.0133972167969</v>
+        <v>291.2256774902344</v>
       </c>
       <c r="E2" t="n">
-        <v>358.4219665527344</v>
+        <v>292.2870178222656</v>
       </c>
       <c r="F2" t="n">
-        <v>364.4971923828125</v>
+        <v>294.1145629882812</v>
       </c>
       <c r="G2" t="n">
-        <v>372.0984497070312</v>
+        <v>295.9617614746094</v>
       </c>
       <c r="H2" t="n">
-        <v>380.4747314453125</v>
+        <v>299.5840148925781</v>
       </c>
       <c r="I2" t="n">
-        <v>388.6264038085938</v>
+        <v>302.5936279296875</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6161499023438</v>
+        <v>306.8968505859375</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9498901367188</v>
+        <v>311.4808654785156</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3232421875</v>
+        <v>315.5256958007812</v>
       </c>
       <c r="M2" t="n">
-        <v>430.3505859375</v>
+        <v>319.0963439941406</v>
       </c>
       <c r="N2" t="n">
-        <v>431.7658081054688</v>
+        <v>323.4630737304688</v>
       </c>
       <c r="O2" t="n">
-        <v>432.3245544433594</v>
+        <v>350.9307556152344</v>
       </c>
       <c r="P2" t="n">
-        <v>430.2893676757812</v>
+        <v>351.2710571289062</v>
       </c>
       <c r="Q2" t="n">
-        <v>429.1904907226562</v>
+        <v>351.2893981933594</v>
       </c>
       <c r="R2" t="n">
-        <v>428.4720458984375</v>
+        <v>351.168212890625</v>
       </c>
       <c r="S2" t="n">
-        <v>427.8558044433594</v>
+        <v>350.9708862304688</v>
       </c>
       <c r="T2" t="n">
-        <v>425.7397766113281</v>
+        <v>350.5228881835938</v>
       </c>
       <c r="U2" t="n">
-        <v>421.5070190429688</v>
+        <v>349.8470764160156</v>
       </c>
       <c r="V2" t="n">
-        <v>416.0044860839844</v>
+        <v>349.1371459960938</v>
       </c>
       <c r="W2" t="n">
-        <v>411.2417602539062</v>
+        <v>348.1092834472656</v>
       </c>
       <c r="X2" t="n">
-        <v>406.6733093261719</v>
+        <v>347.5020751953125</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.7023010253906</v>
+        <v>346.9446411132812</v>
       </c>
       <c r="Z2" t="n">
-        <v>397.768310546875</v>
+        <v>345.8017578125</v>
       </c>
       <c r="AA2" t="n">
-        <v>394.0665893554688</v>
+        <v>344.5591735839844</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.138916015625</v>
+        <v>343.7012329101562</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.22265625</v>
+        <v>343.1563110351562</v>
       </c>
       <c r="AD2" t="n">
-        <v>385.1402282714844</v>
+        <v>342.4353637695312</v>
       </c>
       <c r="AE2" t="n">
-        <v>383.35009765625</v>
+        <v>341.5675354003906</v>
       </c>
       <c r="AF2" t="n">
-        <v>381.6106567382812</v>
+        <v>340.5154113769531</v>
       </c>
       <c r="AG2" t="n">
-        <v>380.6523132324219</v>
+        <v>339.5254516601562</v>
       </c>
       <c r="AH2" t="n">
-        <v>380.0888366699219</v>
+        <v>338.9154663085938</v>
       </c>
       <c r="AI2" t="n">
-        <v>379.3938903808594</v>
+        <v>338.4793701171875</v>
       </c>
       <c r="AJ2" t="n">
-        <v>378.9931945800781</v>
+        <v>338.1982727050781</v>
       </c>
       <c r="AK2" t="n">
-        <v>378.1460571289062</v>
+        <v>337.9530029296875</v>
       </c>
       <c r="AL2" t="n">
-        <v>376.67138671875</v>
+        <v>337.5386962890625</v>
       </c>
       <c r="AM2" t="n">
-        <v>374.8251342773438</v>
+        <v>337.2576904296875</v>
       </c>
       <c r="AN2" t="n">
-        <v>373.483642578125</v>
+        <v>337.0517272949219</v>
       </c>
       <c r="AO2" t="n">
-        <v>372.3828735351562</v>
+        <v>336.9277954101562</v>
       </c>
       <c r="AP2" t="n">
-        <v>371.1488342285156</v>
+        <v>336.8323364257812</v>
       </c>
       <c r="AQ2" t="n">
-        <v>370.63818359375</v>
+        <v>336.7210693359375</v>
       </c>
       <c r="AR2" t="n">
-        <v>370.382568359375</v>
+        <v>336.6328430175781</v>
       </c>
       <c r="AS2" t="n">
-        <v>370.4383544921875</v>
+        <v>336.67626953125</v>
       </c>
       <c r="AT2" t="n">
-        <v>370.55126953125</v>
+        <v>336.7584533691406</v>
       </c>
       <c r="AU2" t="n">
-        <v>370.730224609375</v>
+        <v>336.8499145507812</v>
       </c>
       <c r="AV2" t="n">
-        <v>370.9372253417969</v>
+        <v>337.2568054199219</v>
       </c>
       <c r="AW2" t="n">
-        <v>370.9434814453125</v>
+        <v>337.71728515625</v>
       </c>
       <c r="AX2" t="n">
-        <v>370.4983825683594</v>
+        <v>338.1583251953125</v>
       </c>
       <c r="AY2" t="n">
-        <v>369.4515686035156</v>
+        <v>337.9208374023438</v>
       </c>
       <c r="AZ2" t="n">
-        <v>368.256591796875</v>
+        <v>337.6075439453125</v>
       </c>
       <c r="BA2" t="n">
-        <v>367.4500732421875</v>
+        <v>337.1737365722656</v>
       </c>
       <c r="BB2" t="n">
-        <v>366.54345703125</v>
+        <v>336.8655395507812</v>
       </c>
       <c r="BC2" t="n">
-        <v>365.3872680664062</v>
+        <v>336.5307006835938</v>
       </c>
       <c r="BD2" t="n">
-        <v>364.4216613769531</v>
+        <v>336.4744873046875</v>
       </c>
       <c r="BE2" t="n">
-        <v>363.4559631347656</v>
+        <v>336.5006103515625</v>
       </c>
       <c r="BF2" t="n">
-        <v>362.2205200195312</v>
+        <v>336.5576782226562</v>
       </c>
       <c r="BG2" t="n">
-        <v>361.0719604492188</v>
+        <v>336.624267578125</v>
       </c>
       <c r="BH2" t="n">
-        <v>359.4451904296875</v>
+        <v>336.6893920898438</v>
       </c>
       <c r="BI2" t="n">
-        <v>357.0586547851562</v>
+        <v>336.7252197265625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>354.7421875</v>
+        <v>336.7338562011719</v>
       </c>
       <c r="BK2" t="n">
-        <v>351.6570434570312</v>
+        <v>336.72314453125</v>
       </c>
       <c r="BL2" t="n">
-        <v>346.7643432617188</v>
+        <v>336.7237548828125</v>
       </c>
       <c r="BM2" t="n">
-        <v>342.2689208984375</v>
+        <v>336.7275695800781</v>
       </c>
       <c r="BN2" t="n">
-        <v>337.6779479980469</v>
+        <v>336.7511291503906</v>
       </c>
       <c r="BO2" t="n">
-        <v>330.9302368164062</v>
+        <v>337.273193359375</v>
       </c>
       <c r="BP2" t="n">
-        <v>327.8328857421875</v>
+        <v>337.8135681152344</v>
       </c>
       <c r="BQ2" t="n">
-        <v>325.3466796875</v>
+        <v>338.7513732910156</v>
       </c>
       <c r="BR2" t="n">
-        <v>323.0027465820312</v>
+        <v>339.8168640136719</v>
       </c>
       <c r="BS2" t="n">
-        <v>320.5607604980469</v>
+        <v>340.7457885742188</v>
       </c>
       <c r="BT2" t="n">
-        <v>318.5112915039062</v>
+        <v>341.3070068359375</v>
       </c>
       <c r="BU2" t="n">
-        <v>317.2090148925781</v>
+        <v>341.5760803222656</v>
       </c>
       <c r="BV2" t="n">
-        <v>316.4062194824219</v>
+        <v>341.6860961914062</v>
       </c>
       <c r="BW2" t="n">
-        <v>315.9823303222656</v>
+        <v>341.734375</v>
       </c>
       <c r="BX2" t="n">
-        <v>315.9007873535156</v>
+        <v>341.7634887695312</v>
       </c>
       <c r="BY2" t="n">
-        <v>316.7997131347656</v>
+        <v>341.7896118164062</v>
       </c>
       <c r="BZ2" t="n">
-        <v>318.1920166015625</v>
+        <v>341.8246765136719</v>
       </c>
       <c r="CA2" t="n">
-        <v>320.82666015625</v>
+        <v>341.8632507324219</v>
       </c>
       <c r="CB2" t="n">
-        <v>323.6826171875</v>
+        <v>341.907470703125</v>
       </c>
       <c r="CC2" t="n">
-        <v>327.1139526367188</v>
+        <v>341.9372253417969</v>
       </c>
       <c r="CD2" t="n">
-        <v>330.3793640136719</v>
+        <v>341.9699096679688</v>
       </c>
       <c r="CE2" t="n">
-        <v>336.1616516113281</v>
+        <v>341.9963989257812</v>
       </c>
       <c r="CF2" t="n">
-        <v>339.9368591308594</v>
+        <v>342.0148315429688</v>
       </c>
       <c r="CG2" t="n">
-        <v>343.507080078125</v>
+        <v>342.02490234375</v>
       </c>
       <c r="CH2" t="n">
-        <v>347.8253784179688</v>
+        <v>342.0321044921875</v>
       </c>
       <c r="CI2" t="n">
-        <v>352.6403198242188</v>
+        <v>342.0416259765625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>356.2722473144531</v>
+        <v>342.0418701171875</v>
       </c>
       <c r="CK2" t="n">
-        <v>359.6595458984375</v>
+        <v>342.0360717773438</v>
       </c>
       <c r="CL2" t="n">
-        <v>362.6632080078125</v>
+        <v>342.0292663574219</v>
       </c>
       <c r="CM2" t="n">
-        <v>365.6362609863281</v>
+        <v>341.9867553710938</v>
       </c>
       <c r="CN2" t="n">
-        <v>369.5657348632812</v>
+        <v>341.9278564453125</v>
       </c>
       <c r="CO2" t="n">
-        <v>371.0368347167969</v>
+        <v>341.8692626953125</v>
       </c>
       <c r="CP2" t="n">
-        <v>372.5985107421875</v>
+        <v>341.8069152832031</v>
       </c>
       <c r="CQ2" t="n">
-        <v>373.8905029296875</v>
+        <v>341.7864379882812</v>
       </c>
       <c r="CR2" t="n">
-        <v>374.7281494140625</v>
+        <v>341.7688598632812</v>
       </c>
       <c r="CS2" t="n">
-        <v>375.230224609375</v>
+        <v>341.7486267089844</v>
       </c>
       <c r="CT2" t="n">
-        <v>375.3055419921875</v>
+        <v>341.7262573242188</v>
       </c>
       <c r="CU2" t="n">
-        <v>375.3211059570312</v>
+        <v>341.7199096679688</v>
       </c>
       <c r="CV2" t="n">
-        <v>374.4641723632812</v>
+        <v>341.7124633789062</v>
       </c>
       <c r="CW2" t="n">
-        <v>373.0532836914062</v>
+        <v>341.7044677734375</v>
       </c>
       <c r="CX2" t="n">
-        <v>368.659912109375</v>
+        <v>341.6914367675781</v>
       </c>
       <c r="CY2" t="n">
-        <v>365.1482543945312</v>
+        <v>341.6614990234375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>358.1946105957031</v>
+        <v>341.6439208984375</v>
       </c>
       <c r="DA2" t="n">
-        <v>356.0167236328125</v>
+        <v>341.6041870117188</v>
       </c>
       <c r="DB2" t="n">
-        <v>354.018798828125</v>
+        <v>341.5565795898438</v>
       </c>
       <c r="DC2" t="n">
-        <v>350.8216552734375</v>
+        <v>341.48876953125</v>
       </c>
       <c r="DD2" t="n">
-        <v>346.5582275390625</v>
+        <v>341.3456726074219</v>
       </c>
       <c r="DE2" t="n">
-        <v>339.7469482421875</v>
+        <v>341.0076293945312</v>
       </c>
       <c r="DF2" t="n">
-        <v>334.8135681152344</v>
+        <v>340.51220703125</v>
       </c>
       <c r="DG2" t="n">
-        <v>333.3002319335938</v>
+        <v>339.7081909179688</v>
       </c>
       <c r="DH2" t="n">
-        <v>329.8372192382812</v>
+        <v>339.0787963867188</v>
       </c>
       <c r="DI2" t="n">
-        <v>328.2300109863281</v>
+        <v>338.300048828125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>326.3983459472656</v>
+        <v>337.53125</v>
       </c>
       <c r="DK2" t="n">
-        <v>325.3380737304688</v>
+        <v>336.7626342773438</v>
       </c>
       <c r="DL2" t="n">
-        <v>324.7672119140625</v>
+        <v>336.6969604492188</v>
       </c>
       <c r="DM2" t="n">
-        <v>324.1541137695312</v>
+        <v>336.675048828125</v>
       </c>
       <c r="DN2" t="n">
-        <v>323.3080749511719</v>
+        <v>336.6484985351562</v>
       </c>
       <c r="DO2" t="n">
-        <v>321.6913146972656</v>
+        <v>336.6076049804688</v>
       </c>
       <c r="DP2" t="n">
-        <v>319.635986328125</v>
+        <v>336.5736694335938</v>
       </c>
       <c r="DQ2" t="n">
-        <v>315.8998718261719</v>
+        <v>336.5084838867188</v>
       </c>
       <c r="DR2" t="n">
-        <v>314.97119140625</v>
+        <v>336.486083984375</v>
       </c>
       <c r="DS2" t="n">
-        <v>314.9154052734375</v>
+        <v>336.467529296875</v>
       </c>
       <c r="DT2" t="n">
-        <v>314.8469848632812</v>
+        <v>336.3887939453125</v>
       </c>
       <c r="DU2" t="n">
-        <v>314.7277526855469</v>
+        <v>336.3137512207031</v>
       </c>
       <c r="DV2" t="n">
-        <v>314.9372253417969</v>
+        <v>336.1504516601562</v>
       </c>
       <c r="DW2" t="n">
-        <v>319.3519897460938</v>
+        <v>336.0584716796875</v>
       </c>
       <c r="DX2" t="n">
-        <v>323.2670593261719</v>
+        <v>335.970458984375</v>
       </c>
       <c r="DY2" t="n">
-        <v>326.9898681640625</v>
+        <v>335.919921875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>333.3548278808594</v>
+        <v>337.4325561523438</v>
       </c>
       <c r="EA2" t="n">
-        <v>337.766357421875</v>
+        <v>338.5634155273438</v>
       </c>
       <c r="EB2" t="n">
-        <v>349.21728515625</v>
+        <v>339.9933471679688</v>
       </c>
       <c r="EC2" t="n">
-        <v>355.9920654296875</v>
+        <v>340.1892700195312</v>
       </c>
       <c r="ED2" t="n">
-        <v>361.493408203125</v>
+        <v>339.7728271484375</v>
       </c>
       <c r="EE2" t="n">
-        <v>374.1739501953125</v>
+        <v>338.9046630859375</v>
       </c>
       <c r="EF2" t="n">
-        <v>390.3881530761719</v>
+        <v>336.7367248535156</v>
       </c>
       <c r="EG2" t="n">
-        <v>405.2559814453125</v>
+        <v>336.0562744140625</v>
       </c>
       <c r="EH2" t="n">
-        <v>411.0001220703125</v>
+        <v>335.64111328125</v>
       </c>
       <c r="EI2" t="n">
-        <v>421.5545349121094</v>
+        <v>335.5884399414062</v>
       </c>
       <c r="EJ2" t="n">
-        <v>425.5436401367188</v>
+        <v>335.600830078125</v>
       </c>
       <c r="EK2" t="n">
-        <v>431.3932495117188</v>
+        <v>335.5261840820312</v>
       </c>
       <c r="EL2" t="n">
-        <v>433.7256469726562</v>
+        <v>335.5285949707031</v>
       </c>
       <c r="EM2" t="n">
-        <v>439.5800170898438</v>
+        <v>335.5643005371094</v>
       </c>
       <c r="EN2" t="n">
-        <v>443.5938720703125</v>
+        <v>335.4999389648438</v>
       </c>
       <c r="EO2" t="n">
-        <v>447.9595336914062</v>
+        <v>335.40283203125</v>
       </c>
       <c r="EP2" t="n">
-        <v>448.8499145507812</v>
+        <v>335.3637390136719</v>
       </c>
       <c r="EQ2" t="n">
-        <v>451.9237060546875</v>
+        <v>335.4613952636719</v>
       </c>
       <c r="ER2" t="n">
-        <v>452.7821350097656</v>
+        <v>335.4820251464844</v>
       </c>
       <c r="ES2" t="n">
-        <v>452.7340393066406</v>
+        <v>335.4874877929688</v>
       </c>
       <c r="ET2" t="n">
-        <v>453.6964416503906</v>
+        <v>335.4919128417969</v>
       </c>
       <c r="EU2" t="n">
-        <v>454.7930297851562</v>
+        <v>335.2718505859375</v>
       </c>
       <c r="EV2" t="n">
-        <v>454.7956848144531</v>
+        <v>334.949462890625</v>
       </c>
       <c r="EW2" t="n">
-        <v>453.4945068359375</v>
+        <v>334.8732299804688</v>
       </c>
       <c r="EX2" t="n">
-        <v>453.2754516601562</v>
+        <v>334.6647644042969</v>
       </c>
       <c r="EY2" t="n">
-        <v>452.2534484863281</v>
+        <v>334.6907043457031</v>
       </c>
       <c r="EZ2" t="n">
-        <v>451.0742492675781</v>
+        <v>335.7135314941406</v>
       </c>
       <c r="FA2" t="n">
-        <v>449.5789184570312</v>
+        <v>336.5552978515625</v>
       </c>
       <c r="FB2" t="n">
-        <v>450.3788757324219</v>
+        <v>337.100830078125</v>
       </c>
       <c r="FC2" t="n">
-        <v>451.2252807617188</v>
+        <v>338.283935546875</v>
       </c>
       <c r="FD2" t="n">
-        <v>448.9349365234375</v>
+        <v>339.3067932128906</v>
       </c>
       <c r="FE2" t="n">
-        <v>447.7345581054688</v>
+        <v>340.2476501464844</v>
       </c>
       <c r="FF2" t="n">
-        <v>446.4531860351562</v>
+        <v>342.4938354492188</v>
       </c>
       <c r="FG2" t="n">
-        <v>443.867919921875</v>
+        <v>343.1088256835938</v>
       </c>
       <c r="FH2" t="n">
-        <v>443.3672485351562</v>
+        <v>343.9095764160156</v>
       </c>
       <c r="FI2" t="n">
-        <v>442.6709289550781</v>
+        <v>344.23974609375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>441.9556884765625</v>
+        <v>344.8473815917969</v>
       </c>
       <c r="FK2" t="n">
-        <v>440.6133728027344</v>
+        <v>345.2864074707031</v>
       </c>
       <c r="FL2" t="n">
-        <v>439.5717163085938</v>
+        <v>345.4256591796875</v>
       </c>
       <c r="FM2" t="n">
-        <v>436.8970336914062</v>
+        <v>345.7733154296875</v>
       </c>
       <c r="FN2" t="n">
-        <v>435.9722290039062</v>
+        <v>346.2835083007812</v>
       </c>
       <c r="FO2" t="n">
-        <v>435.1131591796875</v>
+        <v>346.9175415039062</v>
       </c>
       <c r="FP2" t="n">
-        <v>432.6498107910156</v>
+        <v>346.8213500976562</v>
       </c>
       <c r="FQ2" t="n">
-        <v>430.7544555664062</v>
+        <v>346.2587280273438</v>
       </c>
       <c r="FR2" t="n">
-        <v>429.1585998535156</v>
+        <v>344.5555114746094</v>
       </c>
       <c r="FS2" t="n">
-        <v>427.0882568359375</v>
+        <v>344.0323486328125</v>
       </c>
       <c r="FT2" t="n">
-        <v>421.975341796875</v>
+        <v>343.5816650390625</v>
       </c>
       <c r="FU2" t="n">
-        <v>419.534912109375</v>
+        <v>342.0012817382812</v>
       </c>
       <c r="FV2" t="n">
-        <v>413.146728515625</v>
+        <v>339.1481018066406</v>
       </c>
       <c r="FW2" t="n">
-        <v>409.3097534179688</v>
+        <v>332.915283203125</v>
       </c>
       <c r="FX2" t="n">
-        <v>408.3067016601562</v>
+        <v>330.2562255859375</v>
       </c>
       <c r="FY2" t="n">
-        <v>407.3254089355469</v>
+        <v>326.313720703125</v>
       </c>
       <c r="FZ2" t="n">
-        <v>403.4335021972656</v>
+        <v>325.1846618652344</v>
       </c>
       <c r="GA2" t="n">
-        <v>401.5291748046875</v>
+        <v>322.8805541992188</v>
       </c>
       <c r="GB2" t="n">
-        <v>397.304931640625</v>
+        <v>321.528076171875</v>
       </c>
       <c r="GC2" t="n">
-        <v>396.1982421875</v>
+        <v>317.7506713867188</v>
       </c>
       <c r="GD2" t="n">
-        <v>395.2197875976562</v>
+        <v>316.3099060058594</v>
       </c>
       <c r="GE2" t="n">
-        <v>395.0045471191406</v>
+        <v>314.0950317382812</v>
       </c>
       <c r="GF2" t="n">
-        <v>394.2274169921875</v>
+        <v>312.6556701660156</v>
       </c>
       <c r="GG2" t="n">
-        <v>393.8868713378906</v>
+        <v>310.4325561523438</v>
       </c>
       <c r="GH2" t="n">
-        <v>392.1389770507812</v>
+        <v>307.8147583007812</v>
       </c>
       <c r="GI2" t="n">
-        <v>388.3602294921875</v>
+        <v>306.6878356933594</v>
       </c>
       <c r="GJ2" t="n">
-        <v>385.136474609375</v>
+        <v>306.2961730957031</v>
       </c>
       <c r="GK2" t="n">
-        <v>383.33056640625</v>
+        <v>305.5713500976562</v>
       </c>
       <c r="GL2" t="n">
-        <v>379.428466796875</v>
+        <v>304.4111633300781</v>
       </c>
       <c r="GM2" t="n">
-        <v>375.3882446289062</v>
+        <v>302.5087280273438</v>
       </c>
       <c r="GN2" t="n">
-        <v>372.878173828125</v>
+        <v>301.7665100097656</v>
       </c>
       <c r="GO2" t="n">
-        <v>368.6989135742188</v>
+        <v>300.5897827148438</v>
       </c>
       <c r="GP2" t="n">
-        <v>362.685302734375</v>
+        <v>299.0429077148438</v>
       </c>
       <c r="GQ2" t="n">
-        <v>355.3531494140625</v>
+        <v>298.2735595703125</v>
       </c>
       <c r="GR2" t="n">
-        <v>350.9968566894531</v>
+        <v>296.1542663574219</v>
       </c>
       <c r="GS2" t="n">
-        <v>347.5071411132812</v>
+        <v>293.3081970214844</v>
       </c>
       <c r="GT2" t="n">
-        <v>344.9835510253906</v>
+        <v>289.0105285644531</v>
       </c>
       <c r="GU2" t="n">
-        <v>339.0082397460938</v>
+        <v>279.3112487792969</v>
       </c>
       <c r="GV2" t="n">
-        <v>336.7744750976562</v>
+        <v>271.9008178710938</v>
       </c>
       <c r="GW2" t="n">
-        <v>335.8533325195312</v>
+        <v>264.719970703125</v>
       </c>
       <c r="GX2" t="n">
-        <v>335.3402099609375</v>
+        <v>254.9994506835938</v>
       </c>
       <c r="GY2" t="n">
-        <v>334.3587646484375</v>
+        <v>246.9302062988281</v>
       </c>
       <c r="GZ2" t="n">
-        <v>332.964599609375</v>
+        <v>235.0210266113281</v>
       </c>
       <c r="HA2" t="n">
-        <v>331.9556884765625</v>
+        <v>199.4959716796875</v>
       </c>
       <c r="HB2" t="n">
-        <v>331.7670288085938</v>
+        <v>175.4048004150391</v>
       </c>
       <c r="HC2" t="n">
-        <v>331.6565551757812</v>
+        <v>163.9953918457031</v>
       </c>
       <c r="HD2" t="n">
-        <v>331.6539001464844</v>
+        <v>153.5769958496094</v>
       </c>
       <c r="HE2" t="n">
-        <v>331.0425415039062</v>
+        <v>140.6922912597656</v>
       </c>
       <c r="HF2" t="n">
-        <v>329.8036193847656</v>
+        <v>136.0558624267578</v>
       </c>
       <c r="HG2" t="n">
-        <v>329.9158935546875</v>
+        <v>134.0196228027344</v>
       </c>
       <c r="HH2" t="n">
-        <v>331.6739501953125</v>
+        <v>136.3740844726562</v>
       </c>
       <c r="HI2" t="n">
-        <v>334.5989379882812</v>
+        <v>140.1295318603516</v>
       </c>
       <c r="HJ2" t="n">
-        <v>341.3265991210938</v>
+        <v>139.2702484130859</v>
       </c>
       <c r="HK2" t="n">
-        <v>345.3338928222656</v>
+        <v>141.2750091552734</v>
       </c>
       <c r="HL2" t="n">
-        <v>353.0151062011719</v>
+        <v>148.0065002441406</v>
       </c>
       <c r="HM2" t="n">
-        <v>361.1864013671875</v>
+        <v>150.8306579589844</v>
       </c>
       <c r="HN2" t="n">
-        <v>371.25634765625</v>
+        <v>157.1156768798828</v>
       </c>
       <c r="HO2" t="n">
-        <v>385.5853271484375</v>
+        <v>173.199951171875</v>
       </c>
       <c r="HP2" t="n">
-        <v>395.5272827148438</v>
+        <v>191.3328552246094</v>
       </c>
       <c r="HQ2" t="n">
-        <v>398.8703002929688</v>
+        <v>201.25439453125</v>
       </c>
       <c r="HR2" t="n">
-        <v>408.0339965820312</v>
+        <v>197.2622985839844</v>
       </c>
       <c r="HS2" t="n">
-        <v>413.59423828125</v>
+        <v>193.5626525878906</v>
       </c>
       <c r="HT2" t="n">
-        <v>418.6774291992188</v>
+        <v>195.4761657714844</v>
       </c>
       <c r="HU2" t="n">
-        <v>421.8999938964844</v>
+        <v>210.6097106933594</v>
       </c>
       <c r="HV2" t="n">
-        <v>423.5009460449219</v>
+        <v>233.5737915039062</v>
       </c>
       <c r="HW2" t="n">
-        <v>424.5697631835938</v>
+        <v>253.0740051269531</v>
       </c>
       <c r="HX2" t="n">
-        <v>425.7735595703125</v>
+        <v>268.3727416992188</v>
       </c>
       <c r="HY2" t="n">
-        <v>426.1310424804688</v>
+        <v>294.1755676269531</v>
       </c>
       <c r="HZ2" t="n">
-        <v>426.6845092773438</v>
+        <v>302.7432250976562</v>
       </c>
       <c r="IA2" t="n">
-        <v>426.5325927734375</v>
+        <v>306.730224609375</v>
       </c>
       <c r="IB2" t="n">
-        <v>426.4352416992188</v>
+        <v>313.64111328125</v>
       </c>
       <c r="IC2" t="n">
-        <v>426.1848449707031</v>
+        <v>324.2993469238281</v>
       </c>
       <c r="ID2" t="n">
-        <v>424.3018798828125</v>
+        <v>331.7794494628906</v>
       </c>
       <c r="IE2" t="n">
-        <v>421.2741088867188</v>
+        <v>336.62939453125</v>
       </c>
       <c r="IF2" t="n">
-        <v>419.1015319824219</v>
+        <v>336.3073120117188</v>
       </c>
       <c r="IG2" t="n">
-        <v>415.624267578125</v>
+        <v>334.7109985351562</v>
       </c>
       <c r="IH2" t="n">
-        <v>408.214599609375</v>
+        <v>329.4984741210938</v>
       </c>
       <c r="II2" t="n">
-        <v>404.279296875</v>
+        <v>324.1526794433594</v>
       </c>
       <c r="IJ2" t="n">
-        <v>398.00439453125</v>
+        <v>317.5430908203125</v>
       </c>
       <c r="IK2" t="n">
-        <v>386.2351684570312</v>
+        <v>314.0760498046875</v>
       </c>
       <c r="IL2" t="n">
-        <v>382.2282409667969</v>
+        <v>308.3795471191406</v>
       </c>
       <c r="IM2" t="n">
-        <v>373.0805969238281</v>
+        <v>303.8197021484375</v>
       </c>
       <c r="IN2" t="n">
-        <v>362.7890014648438</v>
+        <v>289.610107421875</v>
       </c>
       <c r="IO2" t="n">
-        <v>355.1194458007812</v>
+        <v>291.7069702148438</v>
       </c>
       <c r="IP2" t="n">
-        <v>352.13134765625</v>
+        <v>291.9480285644531</v>
       </c>
       <c r="IQ2" t="n">
-        <v>347.5452880859375</v>
+        <v>269.3323059082031</v>
       </c>
       <c r="IR2" t="n">
-        <v>344.7208251953125</v>
+        <v>262.4085083007812</v>
       </c>
       <c r="IS2" t="n">
-        <v>343.752197265625</v>
+        <v>261.3594360351562</v>
       </c>
       <c r="IT2" t="n">
-        <v>340.9994812011719</v>
+        <v>260.0896301269531</v>
       </c>
       <c r="IU2" t="n">
-        <v>339.6235961914062</v>
+        <v>255.9239501953125</v>
       </c>
       <c r="IV2" t="n">
-        <v>338.8721313476562</v>
+        <v>250.3038177490234</v>
       </c>
       <c r="IW2" t="n">
-        <v>338.5523071289062</v>
+        <v>245.9857482910156</v>
       </c>
       <c r="IX2" t="n">
-        <v>337.5591430664062</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>337.5603637695312</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>337.9031066894531</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>340.5033874511719</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>344.00732421875</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>346.1717224121094</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>349.2490234375</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>354.8200073242188</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>360.0823669433594</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>367.7899780273438</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>373.1994323730469</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>378.4949951171875</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>383.1308288574219</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>387.1674194335938</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>393.7435607910156</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>396.02685546875</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>398.5059814453125</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>401.4549255371094</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>403.9840698242188</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>406.2383422851562</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>407.55224609375</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>409.3931884765625</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>411.3610229492188</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>412.5540771484375</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>413.0614929199219</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>413.50048828125</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>413.6079406738281</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>413.6302185058594</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>413.6369018554688</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>413.638671875</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>413.5284423828125</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>413.2510681152344</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>410.384765625</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>409.126708984375</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>409.0417785644531</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>408.7627563476562</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>408.7335510253906</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>408.6972351074219</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>408.6096801757812</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>408.5595397949219</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>408.5261535644531</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>408.5065002441406</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>408.432373046875</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>408.7091369628906</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>409.4722900390625</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>409.9569396972656</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>410.0365600585938</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>410.1298828125</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>410.9146728515625</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>412.08203125</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>412.6734008789062</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>412.8591613769531</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>413.0674743652344</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>413.6986694335938</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>414.6283264160156</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>416.3685607910156</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>417.4478759765625</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>418.1370849609375</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>418.6759033203125</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>420.0138549804688</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>423.6244201660156</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>425.9347229003906</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>428.6578369140625</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>433.3226318359375</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>438.1322631835938</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>442.5972290039062</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>444.6158142089844</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>446.7415771484375</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>448.5604248046875</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>450.0843505859375</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>456.2255249023438</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>467.4990844726562</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>475.3057861328125</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>481.0648193359375</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>490.9318542480469</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>494.9298095703125</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>494.3232727050781</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>485.6796875</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>480.9472351074219</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>472.8447265625</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>455.9353332519531</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>434.3389587402344</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>412.0460510253906</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>390.2977294921875</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>365.4648132324219</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>353.0294799804688</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>348.50048828125</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>345.4483337402344</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>347.306884765625</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>353.1941528320312</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>362.9006958007812</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>373.59423828125</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>379.5287475585938</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>391.2599182128906</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>396.2568969726562</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>403.2959289550781</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>407.5105285644531</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>407.4701232910156</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>390.8378295898438</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>390.4867553710938</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>399.511962890625</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>399.3992919921875</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>375.0109252929688</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>352.0750122070312</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>353.6669311523438</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>355.6080322265625</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>356.2293701171875</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>356.7340698242188</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>354.3566284179688</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>348.7408752441406</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>347.4713439941406</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>348.69091796875</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>351.4656982421875</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>356.4740600585938</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>357.5560302734375</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>356.5637817382812</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>355.2233276367188</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>355.117431640625</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>355.2530517578125</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>356.5209350585938</v>
+        <v>244.3218994140625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>279.1877746582031</v>
+        <v>290.5147399902344</v>
       </c>
       <c r="B3" t="n">
-        <v>277.0359191894531</v>
+        <v>289.9310607910156</v>
       </c>
       <c r="C3" t="n">
-        <v>275.9937438964844</v>
+        <v>289.3840026855469</v>
       </c>
       <c r="D3" t="n">
-        <v>275.6227111816406</v>
+        <v>289.2221374511719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.2161254882812</v>
+        <v>289.7445373535156</v>
       </c>
       <c r="F3" t="n">
-        <v>278.9152221679688</v>
+        <v>290.4559631347656</v>
       </c>
       <c r="G3" t="n">
-        <v>280.3736572265625</v>
+        <v>291.0086669921875</v>
       </c>
       <c r="H3" t="n">
-        <v>281.478515625</v>
+        <v>291.6969604492188</v>
       </c>
       <c r="I3" t="n">
-        <v>282.122802734375</v>
+        <v>293.1173400878906</v>
       </c>
       <c r="J3" t="n">
-        <v>282.1039123535156</v>
+        <v>294.8294372558594</v>
       </c>
       <c r="K3" t="n">
-        <v>280.4451599121094</v>
+        <v>296.8379211425781</v>
       </c>
       <c r="L3" t="n">
-        <v>278.6257019042969</v>
+        <v>298.7979431152344</v>
       </c>
       <c r="M3" t="n">
-        <v>277.3680419921875</v>
+        <v>299.8385925292969</v>
       </c>
       <c r="N3" t="n">
-        <v>272.8495788574219</v>
+        <v>300.2001647949219</v>
       </c>
       <c r="O3" t="n">
-        <v>275.5887145996094</v>
+        <v>307.0339050292969</v>
       </c>
       <c r="P3" t="n">
-        <v>273.5440673828125</v>
+        <v>305.9872131347656</v>
       </c>
       <c r="Q3" t="n">
-        <v>272.4756469726562</v>
+        <v>305.8048095703125</v>
       </c>
       <c r="R3" t="n">
-        <v>271.9809875488281</v>
+        <v>307.7659606933594</v>
       </c>
       <c r="S3" t="n">
-        <v>271.942138671875</v>
+        <v>308.9281921386719</v>
       </c>
       <c r="T3" t="n">
-        <v>272.0564575195312</v>
+        <v>309.6980895996094</v>
       </c>
       <c r="U3" t="n">
-        <v>272.4913635253906</v>
+        <v>309.8748474121094</v>
       </c>
       <c r="V3" t="n">
-        <v>275.5257568359375</v>
+        <v>310.5480346679688</v>
       </c>
       <c r="W3" t="n">
-        <v>277.4129638671875</v>
+        <v>312.529296875</v>
       </c>
       <c r="X3" t="n">
-        <v>278.7182922363281</v>
+        <v>314.6587524414062</v>
       </c>
       <c r="Y3" t="n">
-        <v>280.8492736816406</v>
+        <v>315.960693359375</v>
       </c>
       <c r="Z3" t="n">
-        <v>283.2646789550781</v>
+        <v>316.3985595703125</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.240966796875</v>
+        <v>316.6161193847656</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.858642578125</v>
+        <v>316.5044555664062</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.1570129394531</v>
+        <v>316.8520812988281</v>
       </c>
       <c r="AD3" t="n">
-        <v>288.9558410644531</v>
+        <v>317.8891296386719</v>
       </c>
       <c r="AE3" t="n">
-        <v>289.0802001953125</v>
+        <v>318.8525695800781</v>
       </c>
       <c r="AF3" t="n">
-        <v>288.7809753417969</v>
+        <v>319.1127014160156</v>
       </c>
       <c r="AG3" t="n">
-        <v>288.5111999511719</v>
+        <v>319.1358337402344</v>
       </c>
       <c r="AH3" t="n">
-        <v>286.9201965332031</v>
+        <v>318.6013793945312</v>
       </c>
       <c r="AI3" t="n">
-        <v>285.1058654785156</v>
+        <v>318.0180053710938</v>
       </c>
       <c r="AJ3" t="n">
-        <v>283.1287841796875</v>
+        <v>317.5947875976562</v>
       </c>
       <c r="AK3" t="n">
-        <v>282.3693542480469</v>
+        <v>317.3592224121094</v>
       </c>
       <c r="AL3" t="n">
-        <v>282.5197143554688</v>
+        <v>317.2392578125</v>
       </c>
       <c r="AM3" t="n">
-        <v>283.1946105957031</v>
+        <v>317.4615783691406</v>
       </c>
       <c r="AN3" t="n">
-        <v>283.8357849121094</v>
+        <v>318.1130676269531</v>
       </c>
       <c r="AO3" t="n">
-        <v>284.3040466308594</v>
+        <v>318.7236938476562</v>
       </c>
       <c r="AP3" t="n">
-        <v>284.6998291015625</v>
+        <v>319.2753295898438</v>
       </c>
       <c r="AQ3" t="n">
-        <v>284.94970703125</v>
+        <v>319.5541381835938</v>
       </c>
       <c r="AR3" t="n">
-        <v>285.0617065429688</v>
+        <v>319.9114074707031</v>
       </c>
       <c r="AS3" t="n">
-        <v>285.1290588378906</v>
+        <v>320.3008728027344</v>
       </c>
       <c r="AT3" t="n">
-        <v>285.2057800292969</v>
+        <v>320.6666259765625</v>
       </c>
       <c r="AU3" t="n">
-        <v>285.3439636230469</v>
+        <v>320.9340209960938</v>
       </c>
       <c r="AV3" t="n">
-        <v>285.2877197265625</v>
+        <v>321.2118225097656</v>
       </c>
       <c r="AW3" t="n">
-        <v>285.3116455078125</v>
+        <v>321.3805847167969</v>
       </c>
       <c r="AX3" t="n">
-        <v>285.3600769042969</v>
+        <v>321.6186218261719</v>
       </c>
       <c r="AY3" t="n">
-        <v>285.4866638183594</v>
+        <v>322.0390319824219</v>
       </c>
       <c r="AZ3" t="n">
-        <v>285.6021728515625</v>
+        <v>322.6617431640625</v>
       </c>
       <c r="BA3" t="n">
-        <v>285.8287353515625</v>
+        <v>322.928466796875</v>
       </c>
       <c r="BB3" t="n">
-        <v>286.160400390625</v>
+        <v>323.1415100097656</v>
       </c>
       <c r="BC3" t="n">
-        <v>286.4825744628906</v>
+        <v>323.1932678222656</v>
       </c>
       <c r="BD3" t="n">
-        <v>286.3531494140625</v>
+        <v>323.0628356933594</v>
       </c>
       <c r="BE3" t="n">
-        <v>286.1107788085938</v>
+        <v>322.9873352050781</v>
       </c>
       <c r="BF3" t="n">
-        <v>285.8376770019531</v>
+        <v>322.8423156738281</v>
       </c>
       <c r="BG3" t="n">
-        <v>285.0193786621094</v>
+        <v>322.6994934082031</v>
       </c>
       <c r="BH3" t="n">
-        <v>283.6919860839844</v>
+        <v>322.656982421875</v>
       </c>
       <c r="BI3" t="n">
-        <v>282.1880493164062</v>
+        <v>322.5755615234375</v>
       </c>
       <c r="BJ3" t="n">
-        <v>280.7805786132812</v>
+        <v>322.3800964355469</v>
       </c>
       <c r="BK3" t="n">
-        <v>280.01708984375</v>
+        <v>322.1466979980469</v>
       </c>
       <c r="BL3" t="n">
-        <v>279.7119140625</v>
+        <v>322.0611572265625</v>
       </c>
       <c r="BM3" t="n">
-        <v>279.6828308105469</v>
+        <v>321.9184875488281</v>
       </c>
       <c r="BN3" t="n">
-        <v>279.7548828125</v>
+        <v>321.7622375488281</v>
       </c>
       <c r="BO3" t="n">
-        <v>279.4751281738281</v>
+        <v>321.4917602539062</v>
       </c>
       <c r="BP3" t="n">
-        <v>279.130615234375</v>
+        <v>321.3736572265625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>278.9407348632812</v>
+        <v>321.2559814453125</v>
       </c>
       <c r="BR3" t="n">
-        <v>278.6944580078125</v>
+        <v>321.1444702148438</v>
       </c>
       <c r="BS3" t="n">
-        <v>278.3019409179688</v>
+        <v>321.0511474609375</v>
       </c>
       <c r="BT3" t="n">
-        <v>278.0476379394531</v>
+        <v>320.9911804199219</v>
       </c>
       <c r="BU3" t="n">
-        <v>277.8983764648438</v>
+        <v>320.9553527832031</v>
       </c>
       <c r="BV3" t="n">
-        <v>277.6699829101562</v>
+        <v>320.9340515136719</v>
       </c>
       <c r="BW3" t="n">
-        <v>277.3866271972656</v>
+        <v>320.9219970703125</v>
       </c>
       <c r="BX3" t="n">
-        <v>277.0662841796875</v>
+        <v>320.9438171386719</v>
       </c>
       <c r="BY3" t="n">
-        <v>275.8065795898438</v>
+        <v>320.9571533203125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>275.3253479003906</v>
+        <v>320.9653930664062</v>
       </c>
       <c r="CA3" t="n">
-        <v>275.1709594726562</v>
+        <v>320.9580383300781</v>
       </c>
       <c r="CB3" t="n">
-        <v>275.2107238769531</v>
+        <v>321.0182800292969</v>
       </c>
       <c r="CC3" t="n">
-        <v>275.3779602050781</v>
+        <v>321.0873718261719</v>
       </c>
       <c r="CD3" t="n">
-        <v>275.5361938476562</v>
+        <v>321.1836853027344</v>
       </c>
       <c r="CE3" t="n">
-        <v>275.69921875</v>
+        <v>321.2598266601562</v>
       </c>
       <c r="CF3" t="n">
-        <v>275.6412048339844</v>
+        <v>321.2645568847656</v>
       </c>
       <c r="CG3" t="n">
-        <v>275.7606201171875</v>
+        <v>321.2608032226562</v>
       </c>
       <c r="CH3" t="n">
-        <v>275.9004821777344</v>
+        <v>321.2291259765625</v>
       </c>
       <c r="CI3" t="n">
-        <v>275.95751953125</v>
+        <v>321.1414184570312</v>
       </c>
       <c r="CJ3" t="n">
-        <v>276.069091796875</v>
+        <v>321.1060180664062</v>
       </c>
       <c r="CK3" t="n">
-        <v>276.12060546875</v>
+        <v>321.0783081054688</v>
       </c>
       <c r="CL3" t="n">
-        <v>276.0189819335938</v>
+        <v>321.0577392578125</v>
       </c>
       <c r="CM3" t="n">
-        <v>275.9384765625</v>
+        <v>321.0341186523438</v>
       </c>
       <c r="CN3" t="n">
-        <v>275.5956726074219</v>
+        <v>321.0238037109375</v>
       </c>
       <c r="CO3" t="n">
-        <v>275.4439086914062</v>
+        <v>321.04541015625</v>
       </c>
       <c r="CP3" t="n">
-        <v>275.2433471679688</v>
+        <v>321.1083374023438</v>
       </c>
       <c r="CQ3" t="n">
-        <v>275.0708312988281</v>
+        <v>321.1865844726562</v>
       </c>
       <c r="CR3" t="n">
-        <v>274.9053039550781</v>
+        <v>321.2656555175781</v>
       </c>
       <c r="CS3" t="n">
-        <v>274.7739562988281</v>
+        <v>321.3478088378906</v>
       </c>
       <c r="CT3" t="n">
-        <v>274.8313903808594</v>
+        <v>321.4229431152344</v>
       </c>
       <c r="CU3" t="n">
-        <v>274.8643188476562</v>
+        <v>321.489501953125</v>
       </c>
       <c r="CV3" t="n">
-        <v>274.9006958007812</v>
+        <v>321.5468444824219</v>
       </c>
       <c r="CW3" t="n">
-        <v>274.9620056152344</v>
+        <v>321.60009765625</v>
       </c>
       <c r="CX3" t="n">
-        <v>275.0270080566406</v>
+        <v>321.6282348632812</v>
       </c>
       <c r="CY3" t="n">
-        <v>275.061279296875</v>
+        <v>321.6744689941406</v>
       </c>
       <c r="CZ3" t="n">
-        <v>275.0010986328125</v>
+        <v>321.6947021484375</v>
       </c>
       <c r="DA3" t="n">
-        <v>275.0312805175781</v>
+        <v>321.7138977050781</v>
       </c>
       <c r="DB3" t="n">
-        <v>275.1653137207031</v>
+        <v>321.7363586425781</v>
       </c>
       <c r="DC3" t="n">
-        <v>275.1225280761719</v>
+        <v>321.7587280273438</v>
       </c>
       <c r="DD3" t="n">
-        <v>275.121337890625</v>
+        <v>321.7857666015625</v>
       </c>
       <c r="DE3" t="n">
-        <v>275.0736694335938</v>
+        <v>321.8799133300781</v>
       </c>
       <c r="DF3" t="n">
-        <v>275.17578125</v>
+        <v>321.9298095703125</v>
       </c>
       <c r="DG3" t="n">
-        <v>275.1842346191406</v>
+        <v>322.192626953125</v>
       </c>
       <c r="DH3" t="n">
-        <v>275.1741943359375</v>
+        <v>322.4225158691406</v>
       </c>
       <c r="DI3" t="n">
-        <v>275.1745300292969</v>
+        <v>322.654541015625</v>
       </c>
       <c r="DJ3" t="n">
-        <v>275.1297912597656</v>
+        <v>322.8148803710938</v>
       </c>
       <c r="DK3" t="n">
-        <v>275.0110168457031</v>
+        <v>322.9991149902344</v>
       </c>
       <c r="DL3" t="n">
-        <v>274.9787902832031</v>
+        <v>322.9892883300781</v>
       </c>
       <c r="DM3" t="n">
-        <v>274.9572143554688</v>
+        <v>322.9604187011719</v>
       </c>
       <c r="DN3" t="n">
-        <v>274.9606628417969</v>
+        <v>322.8897399902344</v>
       </c>
       <c r="DO3" t="n">
-        <v>275.0278015136719</v>
+        <v>322.8038635253906</v>
       </c>
       <c r="DP3" t="n">
-        <v>275.143310546875</v>
+        <v>322.72900390625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>275.3152465820312</v>
+        <v>322.5014038085938</v>
       </c>
       <c r="DR3" t="n">
-        <v>275.3594360351562</v>
+        <v>322.3809509277344</v>
       </c>
       <c r="DS3" t="n">
-        <v>275.3935241699219</v>
+        <v>322.2709350585938</v>
       </c>
       <c r="DT3" t="n">
-        <v>275.0712890625</v>
+        <v>322.0039672851562</v>
       </c>
       <c r="DU3" t="n">
-        <v>274.8103942871094</v>
+        <v>321.9072875976562</v>
       </c>
       <c r="DV3" t="n">
-        <v>275.376220703125</v>
+        <v>321.5117492675781</v>
       </c>
       <c r="DW3" t="n">
-        <v>277.7586975097656</v>
+        <v>321.3047180175781</v>
       </c>
       <c r="DX3" t="n">
-        <v>278.4638366699219</v>
+        <v>321.1121215820312</v>
       </c>
       <c r="DY3" t="n">
-        <v>278.9550170898438</v>
+        <v>320.8995666503906</v>
       </c>
       <c r="DZ3" t="n">
-        <v>280.5576477050781</v>
+        <v>320.8338928222656</v>
       </c>
       <c r="EA3" t="n">
-        <v>281.5715026855469</v>
+        <v>320.8192138671875</v>
       </c>
       <c r="EB3" t="n">
-        <v>284.1573181152344</v>
+        <v>320.8765258789062</v>
       </c>
       <c r="EC3" t="n">
-        <v>285.7235107421875</v>
+        <v>320.9363403320312</v>
       </c>
       <c r="ED3" t="n">
-        <v>287.3582153320312</v>
+        <v>321.0751037597656</v>
       </c>
       <c r="EE3" t="n">
-        <v>289.5152893066406</v>
+        <v>321.1393432617188</v>
       </c>
       <c r="EF3" t="n">
-        <v>293.54296875</v>
+        <v>321.0416564941406</v>
       </c>
       <c r="EG3" t="n">
-        <v>295.1940002441406</v>
+        <v>320.7508850097656</v>
       </c>
       <c r="EH3" t="n">
-        <v>295.0811767578125</v>
+        <v>319.90087890625</v>
       </c>
       <c r="EI3" t="n">
-        <v>294.6702880859375</v>
+        <v>319.5577392578125</v>
       </c>
       <c r="EJ3" t="n">
-        <v>294.2933654785156</v>
+        <v>319.2445678710938</v>
       </c>
       <c r="EK3" t="n">
-        <v>292.2010498046875</v>
+        <v>319.8638000488281</v>
       </c>
       <c r="EL3" t="n">
-        <v>290.443603515625</v>
+        <v>321.5107727050781</v>
       </c>
       <c r="EM3" t="n">
-        <v>288.2537231445312</v>
+        <v>322.4517822265625</v>
       </c>
       <c r="EN3" t="n">
-        <v>287.4568176269531</v>
+        <v>322.0592651367188</v>
       </c>
       <c r="EO3" t="n">
-        <v>287.0518493652344</v>
+        <v>321.3663024902344</v>
       </c>
       <c r="EP3" t="n">
-        <v>287.9228515625</v>
+        <v>321.075439453125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>292.3991394042969</v>
+        <v>322.3779602050781</v>
       </c>
       <c r="ER3" t="n">
-        <v>293.7611999511719</v>
+        <v>322.8683776855469</v>
       </c>
       <c r="ES3" t="n">
-        <v>296.7631225585938</v>
+        <v>323.0099182128906</v>
       </c>
       <c r="ET3" t="n">
-        <v>299.0221862792969</v>
+        <v>323.1176452636719</v>
       </c>
       <c r="EU3" t="n">
-        <v>299.40087890625</v>
+        <v>322.9234008789062</v>
       </c>
       <c r="EV3" t="n">
-        <v>300.4847412109375</v>
+        <v>321.623046875</v>
       </c>
       <c r="EW3" t="n">
-        <v>300.2262878417969</v>
+        <v>321.2449035644531</v>
       </c>
       <c r="EX3" t="n">
-        <v>300.1108093261719</v>
+        <v>320.7188110351562</v>
       </c>
       <c r="EY3" t="n">
-        <v>299.8998718261719</v>
+        <v>320.5353393554688</v>
       </c>
       <c r="EZ3" t="n">
-        <v>299.1448059082031</v>
+        <v>319.9701843261719</v>
       </c>
       <c r="FA3" t="n">
-        <v>298.4371337890625</v>
+        <v>319.8099365234375</v>
       </c>
       <c r="FB3" t="n">
-        <v>299.9270629882812</v>
+        <v>319.5830078125</v>
       </c>
       <c r="FC3" t="n">
-        <v>301.2034301757812</v>
+        <v>320.506103515625</v>
       </c>
       <c r="FD3" t="n">
-        <v>301.1965026855469</v>
+        <v>320.9396362304688</v>
       </c>
       <c r="FE3" t="n">
-        <v>301.3253479003906</v>
+        <v>320.947998046875</v>
       </c>
       <c r="FF3" t="n">
-        <v>301.8138732910156</v>
+        <v>319.8069763183594</v>
       </c>
       <c r="FG3" t="n">
-        <v>304.6758422851562</v>
+        <v>318.1223449707031</v>
       </c>
       <c r="FH3" t="n">
-        <v>305.5105895996094</v>
+        <v>315.9286193847656</v>
       </c>
       <c r="FI3" t="n">
-        <v>307.7235107421875</v>
+        <v>315.5196838378906</v>
       </c>
       <c r="FJ3" t="n">
-        <v>309.8715515136719</v>
+        <v>315.7286376953125</v>
       </c>
       <c r="FK3" t="n">
-        <v>312.2451477050781</v>
+        <v>315.376220703125</v>
       </c>
       <c r="FL3" t="n">
-        <v>312.5089111328125</v>
+        <v>315.5471496582031</v>
       </c>
       <c r="FM3" t="n">
-        <v>311.2945861816406</v>
+        <v>314.615478515625</v>
       </c>
       <c r="FN3" t="n">
-        <v>310.4471740722656</v>
+        <v>312.92333984375</v>
       </c>
       <c r="FO3" t="n">
-        <v>309.620361328125</v>
+        <v>310.8252258300781</v>
       </c>
       <c r="FP3" t="n">
-        <v>308.1805114746094</v>
+        <v>311.1907043457031</v>
       </c>
       <c r="FQ3" t="n">
-        <v>307.6754150390625</v>
+        <v>311.3897705078125</v>
       </c>
       <c r="FR3" t="n">
-        <v>308.0340270996094</v>
+        <v>311.5037536621094</v>
       </c>
       <c r="FS3" t="n">
-        <v>308.2075805664062</v>
+        <v>311.4829711914062</v>
       </c>
       <c r="FT3" t="n">
-        <v>308.0539245605469</v>
+        <v>312.0262451171875</v>
       </c>
       <c r="FU3" t="n">
-        <v>308.0498046875</v>
+        <v>313.3089599609375</v>
       </c>
       <c r="FV3" t="n">
-        <v>310.5570678710938</v>
+        <v>313.0297241210938</v>
       </c>
       <c r="FW3" t="n">
-        <v>314.0427856445312</v>
+        <v>308.8438720703125</v>
       </c>
       <c r="FX3" t="n">
-        <v>314.8396301269531</v>
+        <v>306.789794921875</v>
       </c>
       <c r="FY3" t="n">
-        <v>315.3085632324219</v>
+        <v>304.8727111816406</v>
       </c>
       <c r="FZ3" t="n">
-        <v>315.3086242675781</v>
+        <v>303.7955932617188</v>
       </c>
       <c r="GA3" t="n">
-        <v>315.2029418945312</v>
+        <v>302.8671264648438</v>
       </c>
       <c r="GB3" t="n">
-        <v>314.2841186523438</v>
+        <v>303.03125</v>
       </c>
       <c r="GC3" t="n">
-        <v>313.3800048828125</v>
+        <v>303.2769165039062</v>
       </c>
       <c r="GD3" t="n">
-        <v>311.7414245605469</v>
+        <v>302.5591430664062</v>
       </c>
       <c r="GE3" t="n">
-        <v>311.5449829101562</v>
+        <v>300.3394165039062</v>
       </c>
       <c r="GF3" t="n">
-        <v>311.2514038085938</v>
+        <v>299.0720520019531</v>
       </c>
       <c r="GG3" t="n">
-        <v>311.0671081542969</v>
+        <v>298.7041625976562</v>
       </c>
       <c r="GH3" t="n">
-        <v>310.6341247558594</v>
+        <v>299.2594299316406</v>
       </c>
       <c r="GI3" t="n">
-        <v>310.3747253417969</v>
+        <v>300.0682983398438</v>
       </c>
       <c r="GJ3" t="n">
-        <v>310.2714538574219</v>
+        <v>300.3049621582031</v>
       </c>
       <c r="GK3" t="n">
-        <v>310.1649169921875</v>
+        <v>300.7463684082031</v>
       </c>
       <c r="GL3" t="n">
-        <v>309.6097412109375</v>
+        <v>301.3615417480469</v>
       </c>
       <c r="GM3" t="n">
-        <v>309.48388671875</v>
+        <v>301.2894592285156</v>
       </c>
       <c r="GN3" t="n">
-        <v>309.5671081542969</v>
+        <v>300.388916015625</v>
       </c>
       <c r="GO3" t="n">
-        <v>310.0107727050781</v>
+        <v>295.5406188964844</v>
       </c>
       <c r="GP3" t="n">
-        <v>310.2355346679688</v>
+        <v>290.7373962402344</v>
       </c>
       <c r="GQ3" t="n">
-        <v>310.9890747070312</v>
+        <v>288.2383422851562</v>
       </c>
       <c r="GR3" t="n">
-        <v>310.9674072265625</v>
+        <v>284.3971252441406</v>
       </c>
       <c r="GS3" t="n">
-        <v>309.734375</v>
+        <v>283.543212890625</v>
       </c>
       <c r="GT3" t="n">
-        <v>308.7711791992188</v>
+        <v>282.8848266601562</v>
       </c>
       <c r="GU3" t="n">
-        <v>306.7259826660156</v>
+        <v>281.4710388183594</v>
       </c>
       <c r="GV3" t="n">
-        <v>304.9772033691406</v>
+        <v>278.4730224609375</v>
       </c>
       <c r="GW3" t="n">
-        <v>304.6311340332031</v>
+        <v>274.0106811523438</v>
       </c>
       <c r="GX3" t="n">
-        <v>304.1305236816406</v>
+        <v>270.5321655273438</v>
       </c>
       <c r="GY3" t="n">
-        <v>303.5235290527344</v>
+        <v>268.5477905273438</v>
       </c>
       <c r="GZ3" t="n">
-        <v>303.2820739746094</v>
+        <v>268.4434509277344</v>
       </c>
       <c r="HA3" t="n">
-        <v>303.1163635253906</v>
+        <v>277.2206115722656</v>
       </c>
       <c r="HB3" t="n">
-        <v>302.7825622558594</v>
+        <v>283.0881958007812</v>
       </c>
       <c r="HC3" t="n">
-        <v>302.507568359375</v>
+        <v>291.8428955078125</v>
       </c>
       <c r="HD3" t="n">
-        <v>302.2547912597656</v>
+        <v>299.8111572265625</v>
       </c>
       <c r="HE3" t="n">
-        <v>301.4603881835938</v>
+        <v>304.002685546875</v>
       </c>
       <c r="HF3" t="n">
-        <v>301.1000366210938</v>
+        <v>306.8078918457031</v>
       </c>
       <c r="HG3" t="n">
-        <v>300.6094665527344</v>
+        <v>313.0250244140625</v>
       </c>
       <c r="HH3" t="n">
-        <v>300.8438720703125</v>
+        <v>314.6045532226562</v>
       </c>
       <c r="HI3" t="n">
-        <v>301.070068359375</v>
+        <v>314.5448303222656</v>
       </c>
       <c r="HJ3" t="n">
-        <v>301.5550537109375</v>
+        <v>322.5240478515625</v>
       </c>
       <c r="HK3" t="n">
-        <v>302.5528564453125</v>
+        <v>329.0939025878906</v>
       </c>
       <c r="HL3" t="n">
-        <v>304.7572937011719</v>
+        <v>333.9600524902344</v>
       </c>
       <c r="HM3" t="n">
-        <v>307.0776672363281</v>
+        <v>335.8137817382812</v>
       </c>
       <c r="HN3" t="n">
-        <v>309.2091064453125</v>
+        <v>335.6060180664062</v>
       </c>
       <c r="HO3" t="n">
-        <v>309.8984375</v>
+        <v>333.89208984375</v>
       </c>
       <c r="HP3" t="n">
-        <v>308.9672546386719</v>
+        <v>341.2230224609375</v>
       </c>
       <c r="HQ3" t="n">
-        <v>308.5961608886719</v>
+        <v>351.5325622558594</v>
       </c>
       <c r="HR3" t="n">
-        <v>307.3018493652344</v>
+        <v>363.3920288085938</v>
       </c>
       <c r="HS3" t="n">
-        <v>307.159423828125</v>
+        <v>377.6221618652344</v>
       </c>
       <c r="HT3" t="n">
-        <v>307.3446350097656</v>
+        <v>393.1704406738281</v>
       </c>
       <c r="HU3" t="n">
-        <v>307.5000915527344</v>
+        <v>414.8992004394531</v>
       </c>
       <c r="HV3" t="n">
-        <v>307.4223937988281</v>
+        <v>434.8305969238281</v>
       </c>
       <c r="HW3" t="n">
-        <v>307.2948913574219</v>
+        <v>453.5293273925781</v>
       </c>
       <c r="HX3" t="n">
-        <v>307.2069396972656</v>
+        <v>464.0216064453125</v>
       </c>
       <c r="HY3" t="n">
-        <v>307.1671447753906</v>
+        <v>461.1643981933594</v>
       </c>
       <c r="HZ3" t="n">
-        <v>307.1086120605469</v>
+        <v>454.5304260253906</v>
       </c>
       <c r="IA3" t="n">
-        <v>307.2156677246094</v>
+        <v>447.7129821777344</v>
       </c>
       <c r="IB3" t="n">
-        <v>307.3175048828125</v>
+        <v>443.2343444824219</v>
       </c>
       <c r="IC3" t="n">
-        <v>307.6552124023438</v>
+        <v>440.1519775390625</v>
       </c>
       <c r="ID3" t="n">
-        <v>308.4064636230469</v>
+        <v>438.5602111816406</v>
       </c>
       <c r="IE3" t="n">
-        <v>309.8700866699219</v>
+        <v>435.08251953125</v>
       </c>
       <c r="IF3" t="n">
-        <v>310.6373596191406</v>
+        <v>435.9397583007812</v>
       </c>
       <c r="IG3" t="n">
-        <v>310.0940551757812</v>
+        <v>436.186279296875</v>
       </c>
       <c r="IH3" t="n">
-        <v>309.65576171875</v>
+        <v>435.7069091796875</v>
       </c>
       <c r="II3" t="n">
-        <v>309.8143615722656</v>
+        <v>437.2255859375</v>
       </c>
       <c r="IJ3" t="n">
-        <v>310.1630249023438</v>
+        <v>439.74169921875</v>
       </c>
       <c r="IK3" t="n">
-        <v>309.9822998046875</v>
+        <v>443.6549072265625</v>
       </c>
       <c r="IL3" t="n">
-        <v>310.285888671875</v>
+        <v>446.9469909667969</v>
       </c>
       <c r="IM3" t="n">
-        <v>310.64794921875</v>
+        <v>454.268310546875</v>
       </c>
       <c r="IN3" t="n">
-        <v>311.1616821289062</v>
+        <v>461.3375854492188</v>
       </c>
       <c r="IO3" t="n">
-        <v>311.0885009765625</v>
+        <v>467.9826965332031</v>
       </c>
       <c r="IP3" t="n">
-        <v>311.0628051757812</v>
+        <v>474.1585998535156</v>
       </c>
       <c r="IQ3" t="n">
-        <v>310.1028137207031</v>
+        <v>482.1609191894531</v>
       </c>
       <c r="IR3" t="n">
-        <v>308.6940307617188</v>
+        <v>484.7664184570312</v>
       </c>
       <c r="IS3" t="n">
-        <v>308.0921630859375</v>
+        <v>492.1884765625</v>
       </c>
       <c r="IT3" t="n">
-        <v>307.9941711425781</v>
+        <v>496.9005737304688</v>
       </c>
       <c r="IU3" t="n">
-        <v>308.1438598632812</v>
+        <v>495.6427001953125</v>
       </c>
       <c r="IV3" t="n">
-        <v>308.4486999511719</v>
+        <v>490.4596252441406</v>
       </c>
       <c r="IW3" t="n">
-        <v>308.5651245117188</v>
+        <v>486.1127319335938</v>
       </c>
       <c r="IX3" t="n">
-        <v>309.0513916015625</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>309.3108215332031</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>309.3106079101562</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>309.191650390625</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>309.0989990234375</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>309.976318359375</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>310.0047607421875</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>310.1393127441406</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>310.0972290039062</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>310.0631713867188</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>309.7567443847656</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>309.3634338378906</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>308.7826843261719</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>308.0496826171875</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>307.9954223632812</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>308.2348937988281</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>308.2138977050781</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>308.1790466308594</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>308.3289184570312</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>308.4683837890625</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>308.518798828125</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>308.6746215820312</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>308.7784118652344</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>308.8582458496094</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>308.9389953613281</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>309.1073608398438</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>309.2090454101562</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>309.2954711914062</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>309.3002319335938</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>309.2808837890625</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>309.2462463378906</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>309.25048828125</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>308.6989440917969</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>307.8648681640625</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>307.1224060058594</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>306.4118957519531</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>306.1710510253906</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>306.2022094726562</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>306.6452941894531</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>307.0321044921875</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>307.29833984375</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>307.4966125488281</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>307.6178283691406</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>307.5741882324219</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>307.4386291503906</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>307.2459106445312</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>307.1510620117188</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>306.8918151855469</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>306.9164123535156</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>307.1224670410156</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>307.2804565429688</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>307.3568115234375</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>307.4145202636719</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>307.4866027832031</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>307.4303588867188</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>307.4470520019531</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>307.8143005371094</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>308.4610290527344</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>309.1257629394531</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>309.6852722167969</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>308.7079772949219</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>309.2234191894531</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>310.283203125</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>309.9949645996094</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>307.4615478515625</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>301.8077087402344</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>299.1783142089844</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>298.8132629394531</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>296.211181640625</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>295.3750610351562</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>292.9442138671875</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>293.9745178222656</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>294.9104309082031</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>294.5361938476562</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>287.7615966796875</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>279.2207641601562</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>267.1311950683594</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>257.0680847167969</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>255.0355682373047</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>253.305908203125</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>252.7763214111328</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>258.9129333496094</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>267.5143127441406</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>272.5509948730469</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>268.3291931152344</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>257.7029724121094</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>257.1031494140625</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>267.352294921875</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>281.8051452636719</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>296.3449401855469</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>335.8988647460938</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>375.7840881347656</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>393.8299255371094</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>418.8662719726562</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>417.407470703125</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>415.7732849121094</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>416.604736328125</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>420.0960693359375</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>433.9339904785156</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>440.5276184082031</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>462.0371704101562</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>478.51318359375</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>463.5472106933594</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>445.7973327636719</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>445.302734375</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>446.2021179199219</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>443.1573486328125</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>444.6027221679688</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>442.9884033203125</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>439.6629943847656</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>438.8849182128906</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>442.0027465820312</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>449.5196228027344</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>457.41259765625</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>458.3392028808594</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>457.9104309082031</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>457.3100891113281</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>457.5711975097656</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>457.9998779296875</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>461.8193664550781</v>
+        <v>481.9646606445312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1059.16162109375</v>
+        <v>1014.443969726562</v>
       </c>
       <c r="B4" t="n">
-        <v>1062.575439453125</v>
+        <v>1026.462646484375</v>
       </c>
       <c r="C4" t="n">
-        <v>1064.334838867188</v>
+        <v>1037.430908203125</v>
       </c>
       <c r="D4" t="n">
-        <v>1068.11962890625</v>
+        <v>1047.563598632812</v>
       </c>
       <c r="E4" t="n">
-        <v>1073.149780273438</v>
+        <v>1057.525634765625</v>
       </c>
       <c r="F4" t="n">
-        <v>1079.498779296875</v>
+        <v>1071.4716796875</v>
       </c>
       <c r="G4" t="n">
-        <v>1086.744018554688</v>
+        <v>1089.329956054688</v>
       </c>
       <c r="H4" t="n">
-        <v>1096.345825195312</v>
+        <v>1110.05078125</v>
       </c>
       <c r="I4" t="n">
-        <v>1107.523071289062</v>
+        <v>1131.464599609375</v>
       </c>
       <c r="J4" t="n">
-        <v>1121.64990234375</v>
+        <v>1153.694702148438</v>
       </c>
       <c r="K4" t="n">
-        <v>1141.80517578125</v>
+        <v>1175.376831054688</v>
       </c>
       <c r="L4" t="n">
-        <v>1159.53076171875</v>
+        <v>1200.349975585938</v>
       </c>
       <c r="M4" t="n">
-        <v>1197.34033203125</v>
+        <v>1229.046875</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.189086914062</v>
+        <v>1261.723999023438</v>
       </c>
       <c r="O4" t="n">
-        <v>1237.138305664062</v>
+        <v>1500.636840820312</v>
       </c>
       <c r="P4" t="n">
-        <v>1249.15380859375</v>
+        <v>1521.955444335938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1256.279174804688</v>
+        <v>1539.542724609375</v>
       </c>
       <c r="R4" t="n">
-        <v>1263.476684570312</v>
+        <v>1554.80908203125</v>
       </c>
       <c r="S4" t="n">
-        <v>1270.691528320312</v>
+        <v>1571.526977539062</v>
       </c>
       <c r="T4" t="n">
-        <v>1287.530029296875</v>
+        <v>1590.433227539062</v>
       </c>
       <c r="U4" t="n">
-        <v>1305.176513671875</v>
+        <v>1614.991088867188</v>
       </c>
       <c r="V4" t="n">
-        <v>1318.139038085938</v>
+        <v>1637.739624023438</v>
       </c>
       <c r="W4" t="n">
-        <v>1330.851318359375</v>
+        <v>1658.078979492188</v>
       </c>
       <c r="X4" t="n">
-        <v>1339.329833984375</v>
+        <v>1672.593627929688</v>
       </c>
       <c r="Y4" t="n">
-        <v>1340.215576171875</v>
+        <v>1691.22509765625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1342.312133789062</v>
+        <v>1716.439086914062</v>
       </c>
       <c r="AA4" t="n">
-        <v>1347.723876953125</v>
+        <v>1743.807983398438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1358.339233398438</v>
+        <v>1772.631103515625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1374.843383789062</v>
+        <v>1795.197387695312</v>
       </c>
       <c r="AD4" t="n">
-        <v>1391.545654296875</v>
+        <v>1817.597045898438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1401.585815429688</v>
+        <v>1837.656372070312</v>
       </c>
       <c r="AF4" t="n">
-        <v>1411.051513671875</v>
+        <v>1861.777099609375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1416.463500976562</v>
+        <v>1880.271606445312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1425.183227539062</v>
+        <v>1894.607177734375</v>
       </c>
       <c r="AI4" t="n">
-        <v>1432.63916015625</v>
+        <v>1909.314331054688</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1437.275268554688</v>
+        <v>1921.3291015625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1439.973754882812</v>
+        <v>1932.702758789062</v>
       </c>
       <c r="AL4" t="n">
-        <v>1440.271118164062</v>
+        <v>1941.887451171875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1437.515014648438</v>
+        <v>1950.52392578125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1434.17431640625</v>
+        <v>1959.401245117188</v>
       </c>
       <c r="AO4" t="n">
-        <v>1429.402099609375</v>
+        <v>1966.146362304688</v>
       </c>
       <c r="AP4" t="n">
-        <v>1422.680908203125</v>
+        <v>1972.706298828125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1415.692138671875</v>
+        <v>1978.653198242188</v>
       </c>
       <c r="AR4" t="n">
-        <v>1410.609252929688</v>
+        <v>1985.889404296875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1405.588500976562</v>
+        <v>1989.789794921875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1398.83740234375</v>
+        <v>1993.559326171875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1392.388793945312</v>
+        <v>1997.72265625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1385.60302734375</v>
+        <v>2000.191650390625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1380.35009765625</v>
+        <v>2001.931274414062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1374.405883789062</v>
+        <v>2003.439819335938</v>
       </c>
       <c r="AY4" t="n">
-        <v>1366.866088867188</v>
+        <v>2004.427856445312</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1355.16650390625</v>
+        <v>2004.618896484375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1341.007934570312</v>
+        <v>2005.117431640625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1330.456909179688</v>
+        <v>2005.622436523438</v>
       </c>
       <c r="BC4" t="n">
-        <v>1320.486328125</v>
+        <v>2006.375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1314.187866210938</v>
+        <v>2007.765258789062</v>
       </c>
       <c r="BE4" t="n">
-        <v>1310.45849609375</v>
+        <v>2009.110107421875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1308.229248046875</v>
+        <v>2010.619262695312</v>
       </c>
       <c r="BG4" t="n">
-        <v>1306.383911132812</v>
+        <v>2012.154663085938</v>
       </c>
       <c r="BH4" t="n">
-        <v>1304.746215820312</v>
+        <v>2013.60400390625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1302.179443359375</v>
+        <v>2015.865356445312</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1295.323364257812</v>
+        <v>2019.435546875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1285.629516601562</v>
+        <v>2023.757690429688</v>
       </c>
       <c r="BL4" t="n">
-        <v>1275.919189453125</v>
+        <v>2027.342407226562</v>
       </c>
       <c r="BM4" t="n">
-        <v>1266.98583984375</v>
+        <v>2030.328125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1259.991577148438</v>
+        <v>2031.4248046875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1251.185913085938</v>
+        <v>2032.0771484375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1249.260131835938</v>
+        <v>2032.190063476562</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1247.868286132812</v>
+        <v>2032.279541015625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1246.550903320312</v>
+        <v>2032.355346679688</v>
       </c>
       <c r="BS4" t="n">
-        <v>1245.326171875</v>
+        <v>2032.396606445312</v>
       </c>
       <c r="BT4" t="n">
-        <v>1243.668212890625</v>
+        <v>2032.389770507812</v>
       </c>
       <c r="BU4" t="n">
-        <v>1240.806274414062</v>
+        <v>2032.34619140625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1236.644775390625</v>
+        <v>2032.277709960938</v>
       </c>
       <c r="BW4" t="n">
-        <v>1231.54150390625</v>
+        <v>2032.019165039062</v>
       </c>
       <c r="BX4" t="n">
-        <v>1225.546997070312</v>
+        <v>2031.692749023438</v>
       </c>
       <c r="BY4" t="n">
-        <v>1214.911376953125</v>
+        <v>2031.34912109375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1208.896850585938</v>
+        <v>2030.941040039062</v>
       </c>
       <c r="CA4" t="n">
-        <v>1204.394897460938</v>
+        <v>2030.410400390625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1200.387329101562</v>
+        <v>2029.732299804688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1196.454345703125</v>
+        <v>2028.934326171875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1192.551147460938</v>
+        <v>2028.128173828125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1187.906372070312</v>
+        <v>2027.346313476562</v>
       </c>
       <c r="CF4" t="n">
-        <v>1186.225830078125</v>
+        <v>2026.567993164062</v>
       </c>
       <c r="CG4" t="n">
-        <v>1184.061279296875</v>
+        <v>2025.756713867188</v>
       </c>
       <c r="CH4" t="n">
-        <v>1181.756591796875</v>
+        <v>2024.995971679688</v>
       </c>
       <c r="CI4" t="n">
-        <v>1179.627075195312</v>
+        <v>2023.554809570312</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1178.3359375</v>
+        <v>2022.785278320312</v>
       </c>
       <c r="CK4" t="n">
-        <v>1176.858276367188</v>
+        <v>2020.704833984375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1175.357055664062</v>
+        <v>2018.23974609375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1174.076782226562</v>
+        <v>2016.736450195312</v>
       </c>
       <c r="CN4" t="n">
-        <v>1172.316650390625</v>
+        <v>2015.7216796875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1171.605590820312</v>
+        <v>2014.677978515625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1170.974243164062</v>
+        <v>2014.2158203125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1170.38427734375</v>
+        <v>2013.99267578125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1170.161254882812</v>
+        <v>2013.826049804688</v>
       </c>
       <c r="CS4" t="n">
-        <v>1169.563598632812</v>
+        <v>2013.62451171875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1168.840576171875</v>
+        <v>2013.488647460938</v>
       </c>
       <c r="CU4" t="n">
-        <v>1168.4892578125</v>
+        <v>2013.364379882812</v>
       </c>
       <c r="CV4" t="n">
-        <v>1168.112426757812</v>
+        <v>2013.25830078125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1168.1396484375</v>
+        <v>2013.150024414062</v>
       </c>
       <c r="CX4" t="n">
-        <v>1170.676879882812</v>
+        <v>2013.104858398438</v>
       </c>
       <c r="CY4" t="n">
-        <v>1174.447143554688</v>
+        <v>2013.015869140625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1185.865356445312</v>
+        <v>2012.972900390625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1189.098022460938</v>
+        <v>2012.935424804688</v>
       </c>
       <c r="DB4" t="n">
-        <v>1191.107543945312</v>
+        <v>2012.890625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1192.254150390625</v>
+        <v>2012.844482421875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1192.912353515625</v>
+        <v>2012.797119140625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1194.468139648438</v>
+        <v>2012.620483398438</v>
       </c>
       <c r="DF4" t="n">
-        <v>1197.451171875</v>
+        <v>2011.513549804688</v>
       </c>
       <c r="DG4" t="n">
-        <v>1200.55908203125</v>
+        <v>2010.431762695312</v>
       </c>
       <c r="DH4" t="n">
-        <v>1205.773193359375</v>
+        <v>2009.933227539062</v>
       </c>
       <c r="DI4" t="n">
-        <v>1208.531127929688</v>
+        <v>2009.9794921875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1215.13232421875</v>
+        <v>2009.856323242188</v>
       </c>
       <c r="DK4" t="n">
-        <v>1219.09375</v>
+        <v>2009.558837890625</v>
       </c>
       <c r="DL4" t="n">
-        <v>1221.426635742188</v>
+        <v>2009.444580078125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1223.535278320312</v>
+        <v>2009.423583984375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1224.562866210938</v>
+        <v>2009.737182617188</v>
       </c>
       <c r="DO4" t="n">
-        <v>1225.020263671875</v>
+        <v>2012.146606445312</v>
       </c>
       <c r="DP4" t="n">
-        <v>1225.250610351562</v>
+        <v>2015.160400390625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1225.543823242188</v>
+        <v>2020.080444335938</v>
       </c>
       <c r="DR4" t="n">
-        <v>1225.677490234375</v>
+        <v>2021.161010742188</v>
       </c>
       <c r="DS4" t="n">
-        <v>1225.7998046875</v>
+        <v>2021.776977539062</v>
       </c>
       <c r="DT4" t="n">
-        <v>1226.752319335938</v>
+        <v>2019.674194335938</v>
       </c>
       <c r="DU4" t="n">
-        <v>1237.320556640625</v>
+        <v>2019.518676757812</v>
       </c>
       <c r="DV4" t="n">
-        <v>1241.9248046875</v>
+        <v>2020.078857421875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1249.01171875</v>
+        <v>2020.505004882812</v>
       </c>
       <c r="DX4" t="n">
-        <v>1254.083618164062</v>
+        <v>2021.004150390625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1259.49560546875</v>
+        <v>2021.613403320312</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1270.024780273438</v>
+        <v>2021.824951171875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1276.267944335938</v>
+        <v>2021.866088867188</v>
       </c>
       <c r="EB4" t="n">
-        <v>1289.978637695312</v>
+        <v>2021.812377929688</v>
       </c>
       <c r="EC4" t="n">
-        <v>1296.3525390625</v>
+        <v>2021.73388671875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1303.109008789062</v>
+        <v>2021.53173828125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1314.619384765625</v>
+        <v>2021.42431640625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1332.528564453125</v>
+        <v>2020.542114257812</v>
       </c>
       <c r="EG4" t="n">
-        <v>1368.371337890625</v>
+        <v>2019.43701171875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1389.53271484375</v>
+        <v>2017.514526367188</v>
       </c>
       <c r="EI4" t="n">
-        <v>1418.171020507812</v>
+        <v>2016.942993164062</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1428.674682617188</v>
+        <v>2016.150512695312</v>
       </c>
       <c r="EK4" t="n">
-        <v>1454.96484375</v>
+        <v>2010.522216796875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1465.322143554688</v>
+        <v>1999.136352539062</v>
       </c>
       <c r="EM4" t="n">
-        <v>1479.68603515625</v>
+        <v>1997.802978515625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1491.443359375</v>
+        <v>1999.141235351562</v>
       </c>
       <c r="EO4" t="n">
-        <v>1507.285522460938</v>
+        <v>2001.437255859375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1514.803344726562</v>
+        <v>2002.683227539062</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1535.6767578125</v>
+        <v>2003.055541992188</v>
       </c>
       <c r="ER4" t="n">
-        <v>1553.192626953125</v>
+        <v>2004.526611328125</v>
       </c>
       <c r="ES4" t="n">
-        <v>1584.75146484375</v>
+        <v>2004.686279296875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1610.873168945312</v>
+        <v>2004.527954101562</v>
       </c>
       <c r="EU4" t="n">
-        <v>1629.576049804688</v>
+        <v>2001.981689453125</v>
       </c>
       <c r="EV4" t="n">
-        <v>1655.192260742188</v>
+        <v>1985.92626953125</v>
       </c>
       <c r="EW4" t="n">
-        <v>1719.768920898438</v>
+        <v>1974.662475585938</v>
       </c>
       <c r="EX4" t="n">
-        <v>1768.914794921875</v>
+        <v>1960.8798828125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1796.109008789062</v>
+        <v>1954.48681640625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1825.153564453125</v>
+        <v>1932.609130859375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1865.281372070312</v>
+        <v>1917.330078125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1874.048950195312</v>
+        <v>1900.569580078125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1901.609130859375</v>
+        <v>1874.788452148438</v>
       </c>
       <c r="FD4" t="n">
-        <v>1947.331420898438</v>
+        <v>1837.896850585938</v>
       </c>
       <c r="FE4" t="n">
-        <v>1968.20703125</v>
+        <v>1818.251342773438</v>
       </c>
       <c r="FF4" t="n">
-        <v>1987.6796875</v>
+        <v>1786.537353515625</v>
       </c>
       <c r="FG4" t="n">
-        <v>2025.180053710938</v>
+        <v>1772.707275390625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2038.838256835938</v>
+        <v>1740.19970703125</v>
       </c>
       <c r="FI4" t="n">
-        <v>2078.052734375</v>
+        <v>1719.493774414062</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2103.648681640625</v>
+        <v>1684.979736328125</v>
       </c>
       <c r="FK4" t="n">
-        <v>2144.280517578125</v>
+        <v>1663.888061523438</v>
       </c>
       <c r="FL4" t="n">
-        <v>2167.14990234375</v>
+        <v>1655.941772460938</v>
       </c>
       <c r="FM4" t="n">
-        <v>2221.41162109375</v>
+        <v>1637.380004882812</v>
       </c>
       <c r="FN4" t="n">
-        <v>2239.171142578125</v>
+        <v>1626.866943359375</v>
       </c>
       <c r="FO4" t="n">
-        <v>2254.74609375</v>
+        <v>1601.081909179688</v>
       </c>
       <c r="FP4" t="n">
-        <v>2278.71826171875</v>
+        <v>1571.170288085938</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2293.804931640625</v>
+        <v>1560.5888671875</v>
       </c>
       <c r="FR4" t="n">
-        <v>2307.25732421875</v>
+        <v>1543.582397460938</v>
       </c>
       <c r="FS4" t="n">
-        <v>2326.277099609375</v>
+        <v>1531.97998046875</v>
       </c>
       <c r="FT4" t="n">
-        <v>2348.7587890625</v>
+        <v>1489.447631835938</v>
       </c>
       <c r="FU4" t="n">
-        <v>2354.45458984375</v>
+        <v>1451.781494140625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2358.60009765625</v>
+        <v>1412.746704101562</v>
       </c>
       <c r="FW4" t="n">
-        <v>2348.190673828125</v>
+        <v>1367.020385742188</v>
       </c>
       <c r="FX4" t="n">
-        <v>2342.087158203125</v>
+        <v>1352.450561523438</v>
       </c>
       <c r="FY4" t="n">
-        <v>2335.67529296875</v>
+        <v>1323.29833984375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2342.123046875</v>
+        <v>1304.528564453125</v>
       </c>
       <c r="GA4" t="n">
-        <v>2349.107421875</v>
+        <v>1271.313598632812</v>
       </c>
       <c r="GB4" t="n">
-        <v>2363.24365234375</v>
+        <v>1258.309814453125</v>
       </c>
       <c r="GC4" t="n">
-        <v>2367.318359375</v>
+        <v>1237.1328125</v>
       </c>
       <c r="GD4" t="n">
-        <v>2376.7294921875</v>
+        <v>1223.818725585938</v>
       </c>
       <c r="GE4" t="n">
-        <v>2377.125732421875</v>
+        <v>1202.677734375</v>
       </c>
       <c r="GF4" t="n">
-        <v>2378.05517578125</v>
+        <v>1180.341796875</v>
       </c>
       <c r="GG4" t="n">
-        <v>2377.6064453125</v>
+        <v>1171.955322265625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2377.04345703125</v>
+        <v>1149.65185546875</v>
       </c>
       <c r="GI4" t="n">
-        <v>2376.8291015625</v>
+        <v>1119.072143554688</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2376.39453125</v>
+        <v>1105.187255859375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2376.108154296875</v>
+        <v>1078.4833984375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2375.72607421875</v>
+        <v>1043.005737304688</v>
       </c>
       <c r="GM4" t="n">
-        <v>2373.812744140625</v>
+        <v>1007.972900390625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2372.671142578125</v>
+        <v>990.4420776367188</v>
       </c>
       <c r="GO4" t="n">
-        <v>2361.455810546875</v>
+        <v>956.8615112304688</v>
       </c>
       <c r="GP4" t="n">
-        <v>2344.61865234375</v>
+        <v>925.8416137695312</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2335.345458984375</v>
+        <v>915.7047119140625</v>
       </c>
       <c r="GR4" t="n">
-        <v>2330.75537109375</v>
+        <v>897.4295654296875</v>
       </c>
       <c r="GS4" t="n">
-        <v>2329.677978515625</v>
+        <v>887.1946411132812</v>
       </c>
       <c r="GT4" t="n">
-        <v>2329.661376953125</v>
+        <v>876.6937866210938</v>
       </c>
       <c r="GU4" t="n">
-        <v>2322.815673828125</v>
+        <v>864.0812377929688</v>
       </c>
       <c r="GV4" t="n">
-        <v>2311.466552734375</v>
+        <v>861.9896240234375</v>
       </c>
       <c r="GW4" t="n">
-        <v>2306.5791015625</v>
+        <v>860.6021728515625</v>
       </c>
       <c r="GX4" t="n">
-        <v>2307.868408203125</v>
+        <v>858.0286254882812</v>
       </c>
       <c r="GY4" t="n">
-        <v>2308.635009765625</v>
+        <v>849.5875244140625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2309.162353515625</v>
+        <v>836.3637084960938</v>
       </c>
       <c r="HA4" t="n">
-        <v>2309.35986328125</v>
+        <v>804.48291015625</v>
       </c>
       <c r="HB4" t="n">
-        <v>2307.83642578125</v>
+        <v>788.3271484375</v>
       </c>
       <c r="HC4" t="n">
-        <v>2305.664794921875</v>
+        <v>785.1050415039062</v>
       </c>
       <c r="HD4" t="n">
-        <v>2304.688720703125</v>
+        <v>785.9920654296875</v>
       </c>
       <c r="HE4" t="n">
-        <v>2303.15673828125</v>
+        <v>783.5413818359375</v>
       </c>
       <c r="HF4" t="n">
-        <v>2299.654296875</v>
+        <v>780.2866821289062</v>
       </c>
       <c r="HG4" t="n">
-        <v>2293.379638671875</v>
+        <v>776.6914672851562</v>
       </c>
       <c r="HH4" t="n">
-        <v>2294.829833984375</v>
+        <v>783.4708251953125</v>
       </c>
       <c r="HI4" t="n">
-        <v>2296.835205078125</v>
+        <v>792.5020751953125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2300.441162109375</v>
+        <v>788.7840576171875</v>
       </c>
       <c r="HK4" t="n">
-        <v>2300.288818359375</v>
+        <v>776.5258178710938</v>
       </c>
       <c r="HL4" t="n">
-        <v>2285.7451171875</v>
+        <v>761.9613037109375</v>
       </c>
       <c r="HM4" t="n">
-        <v>2263.6982421875</v>
+        <v>758.29638671875</v>
       </c>
       <c r="HN4" t="n">
-        <v>2251.76123046875</v>
+        <v>744.2172241210938</v>
       </c>
       <c r="HO4" t="n">
-        <v>2240.06591796875</v>
+        <v>715.0436401367188</v>
       </c>
       <c r="HP4" t="n">
-        <v>2236.9169921875</v>
+        <v>689.3858642578125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2234.85302734375</v>
+        <v>670.7286987304688</v>
       </c>
       <c r="HR4" t="n">
-        <v>2227.027099609375</v>
+        <v>655.8392944335938</v>
       </c>
       <c r="HS4" t="n">
-        <v>2221.302734375</v>
+        <v>653.7650756835938</v>
       </c>
       <c r="HT4" t="n">
-        <v>2212.61279296875</v>
+        <v>649.90185546875</v>
       </c>
       <c r="HU4" t="n">
-        <v>2206.21923828125</v>
+        <v>643.4576416015625</v>
       </c>
       <c r="HV4" t="n">
-        <v>2204.804931640625</v>
+        <v>652.8143920898438</v>
       </c>
       <c r="HW4" t="n">
-        <v>2204.69775390625</v>
+        <v>670.0294799804688</v>
       </c>
       <c r="HX4" t="n">
-        <v>2204.67724609375</v>
+        <v>694.6796264648438</v>
       </c>
       <c r="HY4" t="n">
-        <v>2204.66796875</v>
+        <v>731.2171020507812</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2204.66552734375</v>
+        <v>772.160400390625</v>
       </c>
       <c r="IA4" t="n">
-        <v>2204.6201171875</v>
+        <v>805.1202392578125</v>
       </c>
       <c r="IB4" t="n">
-        <v>2204.591064453125</v>
+        <v>828.0040283203125</v>
       </c>
       <c r="IC4" t="n">
-        <v>2204.498779296875</v>
+        <v>854.6417236328125</v>
       </c>
       <c r="ID4" t="n">
-        <v>2204.304931640625</v>
+        <v>871.5179443359375</v>
       </c>
       <c r="IE4" t="n">
-        <v>2203.986083984375</v>
+        <v>885.5108642578125</v>
       </c>
       <c r="IF4" t="n">
-        <v>2203.94970703125</v>
+        <v>908.6163940429688</v>
       </c>
       <c r="IG4" t="n">
-        <v>2204.44970703125</v>
+        <v>917.0336303710938</v>
       </c>
       <c r="IH4" t="n">
-        <v>2206.192138671875</v>
+        <v>918.0795288085938</v>
       </c>
       <c r="II4" t="n">
-        <v>2211.662841796875</v>
+        <v>909.2088012695312</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2222.859619140625</v>
+        <v>890.3515014648438</v>
       </c>
       <c r="IK4" t="n">
-        <v>2237.131591796875</v>
+        <v>861.6798706054688</v>
       </c>
       <c r="IL4" t="n">
-        <v>2238.480224609375</v>
+        <v>835.71240234375</v>
       </c>
       <c r="IM4" t="n">
-        <v>2239.798828125</v>
+        <v>804.330078125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2241.81787109375</v>
+        <v>746.7661743164062</v>
       </c>
       <c r="IO4" t="n">
-        <v>2241.856201171875</v>
+        <v>716.906005859375</v>
       </c>
       <c r="IP4" t="n">
-        <v>2243.435302734375</v>
+        <v>697.4849243164062</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2258.29150390625</v>
+        <v>672.9969482421875</v>
       </c>
       <c r="IR4" t="n">
-        <v>2261.86083984375</v>
+        <v>665.3764038085938</v>
       </c>
       <c r="IS4" t="n">
-        <v>2262.302734375</v>
+        <v>647.2216186523438</v>
       </c>
       <c r="IT4" t="n">
-        <v>2261.82421875</v>
+        <v>634.6256103515625</v>
       </c>
       <c r="IU4" t="n">
-        <v>2259.949462890625</v>
+        <v>626.5147705078125</v>
       </c>
       <c r="IV4" t="n">
-        <v>2257.614990234375</v>
+        <v>619.7047119140625</v>
       </c>
       <c r="IW4" t="n">
-        <v>2255.34033203125</v>
+        <v>608.0094604492188</v>
       </c>
       <c r="IX4" t="n">
-        <v>2252.303466796875</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2250.94677734375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2249.792236328125</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2248.897216796875</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2249.186767578125</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2245.04736328125</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2243.6181640625</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2242.06787109375</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2241.325439453125</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2240.755126953125</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2239.387451171875</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2237.8759765625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2235.491455078125</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2231.53076171875</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2216.105712890625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2209.90185546875</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2208.493896484375</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2205.355712890625</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2199.430419921875</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2194.560791015625</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2193.177978515625</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2191.1904296875</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2188.854736328125</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2183.706787109375</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2177.33984375</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2169.1806640625</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2167.70703125</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2167.41162109375</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2167.35498046875</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2167.332275390625</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2167.2919921875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2163.138916015625</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2144.674560546875</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2139.794921875</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2145.1865234375</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2159.44189453125</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2161.03125</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2161.4375</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2161.412109375</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2161.052734375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2160.84814453125</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2160.707275390625</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2162.018310546875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2169.12646484375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2169.08154296875</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2169.79052734375</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2175.67822265625</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2194.517333984375</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2196.183349609375</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2194.7314453125</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2193.9951171875</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2193.45458984375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2192.968505859375</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2192.43994140625</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2191.534423828125</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2172.779296875</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2151.134521484375</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2135.351806640625</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2122.765869140625</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2103.82861328125</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2059.63525390625</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2015.150390625</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1963.558349609375</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1879.78857421875</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1786.587646484375</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1704.610961914062</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1659.536743164062</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1609.68115234375</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1550.4423828125</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1510.953979492188</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1432.264038085938</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1325.79443359375</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1256.798217773438</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1179.93505859375</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1054.166137695312</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>987.1947021484375</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>921.3285522460938</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>861.9774780273438</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>833.490234375</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>800.7022094726562</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>764.1290283203125</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>752.6019287109375</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>749.2785034179688</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>751.0012817382812</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>800.8917236328125</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>847.4651489257812</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>859.037841796875</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>878.8663940429688</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>882.9564208984375</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>891.1231079101562</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>911.0146484375</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>934.433837890625</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>941.478759765625</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>976.8121948242188</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>1015.753662109375</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>1027.151245117188</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>1031.154052734375</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>1020.627746582031</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>964.5973510742188</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>935.3023681640625</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>848.9476928710938</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>785.7882080078125</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>807.9664916992188</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>826.1157836914062</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>798.906494140625</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>772.5884399414062</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>742.3629150390625</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>702.5480346679688</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>689.2927856445312</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>685.7742919921875</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>682.3195190429688</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>680.9065551757812</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>677.7721557617188</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>673.7698974609375</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>678.76708984375</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>698.095703125</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>715.46533203125</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>716.6556396484375</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>714.4533081054688</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>698.4044799804688</v>
+        <v>599.5939331054688</v>
       </c>
     </row>
   </sheetData>
